--- a/inputs/en/demo_testing_input.xlsx
+++ b/inputs/en/demo_testing_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee.altermatt\Documents\GitHub\Nutrition\inputs\en\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Covid-India-UP\Nutrition\inputs\en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530CC756-DDEE-4F9F-8688-5C0B00DD5163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15533BE0-DA40-491C-9F6A-1AD42FF72045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15840" tabRatio="961" firstSheet="9" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -1620,11 +1620,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1938,7 +1938,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2656,7 +2656,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2692,8 +2692,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2703,7 +2703,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -2713,16 +2713,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2755,7 +2755,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2770,7 +2770,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="726" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="726" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="19" fillId="3" borderId="4" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="19" fillId="3" borderId="4" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2800,7 +2800,7 @@
     <xf numFmtId="9" fontId="9" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2819,28 +2819,28 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2943,7 +2943,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="725" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="725" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="26" fillId="0" borderId="0" xfId="726" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="726" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2973,7 +2973,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="3" borderId="1" xfId="727" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="1" xfId="727" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
@@ -5172,14 +5172,14 @@
       <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="38.6328125" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="27.6640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -5190,14 +5190,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>186</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>188</v>
@@ -5206,7 +5206,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>187</v>
@@ -5215,7 +5215,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -5284,7 +5284,7 @@
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="32" t="s">
         <v>124</v>
       </c>
@@ -5425,7 +5425,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>130</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -5650,23 +5650,23 @@
   </sheetPr>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" style="52" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="36.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" style="35" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="14.453125" style="35"/>
+    <col min="7" max="7" width="22.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="14.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>69</v>
       </c>
@@ -5707,10 +5707,10 @@
         <v>196</v>
       </c>
       <c r="F2" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5730,10 +5730,10 @@
         <v>196</v>
       </c>
       <c r="F3" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5753,10 +5753,10 @@
         <v>196</v>
       </c>
       <c r="F4" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5776,10 +5776,10 @@
         <v>196</v>
       </c>
       <c r="F5" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G5" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5799,10 +5799,10 @@
         <v>196</v>
       </c>
       <c r="F6" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5822,10 +5822,10 @@
         <v>196</v>
       </c>
       <c r="F7" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G7" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5845,10 +5845,10 @@
         <v>196</v>
       </c>
       <c r="F8" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G8" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5868,10 +5868,10 @@
         <v>196</v>
       </c>
       <c r="F9" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G9" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5891,10 +5891,10 @@
         <v>196</v>
       </c>
       <c r="F10" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G10" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5914,10 +5914,10 @@
         <v>196</v>
       </c>
       <c r="F11" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5937,10 +5937,10 @@
         <v>196</v>
       </c>
       <c r="F12" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G12" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5960,10 +5960,10 @@
         <v>196</v>
       </c>
       <c r="F13" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G13" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5983,10 +5983,10 @@
         <v>196</v>
       </c>
       <c r="F14" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G14" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6006,10 +6006,10 @@
         <v>196</v>
       </c>
       <c r="F15" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G15" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6026,13 +6026,13 @@
         <v>2.06</v>
       </c>
       <c r="E16" s="82" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F16" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6052,10 +6052,10 @@
         <v>196</v>
       </c>
       <c r="F17" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G17" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -6072,13 +6072,13 @@
         <v>5</v>
       </c>
       <c r="E18" s="82" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F18" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G18" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6098,10 +6098,10 @@
         <v>196</v>
       </c>
       <c r="F19" s="81">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="G19" s="81">
-        <v>0.01</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6121,10 +6121,10 @@
         <v>196</v>
       </c>
       <c r="F20" s="81">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G20" s="81">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6144,10 +6144,10 @@
         <v>196</v>
       </c>
       <c r="F21" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G21" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6167,10 +6167,10 @@
         <v>196</v>
       </c>
       <c r="F22" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G22" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6190,10 +6190,10 @@
         <v>196</v>
       </c>
       <c r="F23" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G23" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6213,10 +6213,10 @@
         <v>196</v>
       </c>
       <c r="F24" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G24" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6236,10 +6236,10 @@
         <v>196</v>
       </c>
       <c r="F25" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G25" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6259,10 +6259,10 @@
         <v>196</v>
       </c>
       <c r="F26" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G26" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6282,10 +6282,10 @@
         <v>196</v>
       </c>
       <c r="F27" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G27" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6305,10 +6305,10 @@
         <v>196</v>
       </c>
       <c r="F28" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G28" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6328,10 +6328,10 @@
         <v>196</v>
       </c>
       <c r="F29" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G29" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6351,10 +6351,10 @@
         <v>196</v>
       </c>
       <c r="F30" s="81">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G30" s="81">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6374,10 +6374,10 @@
         <v>196</v>
       </c>
       <c r="F31" s="81">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G31" s="81">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6397,10 +6397,10 @@
         <v>196</v>
       </c>
       <c r="F32" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G32" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6420,10 +6420,10 @@
         <v>196</v>
       </c>
       <c r="F33" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G33" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6443,10 +6443,10 @@
         <v>196</v>
       </c>
       <c r="F34" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G34" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6466,10 +6466,10 @@
         <v>196</v>
       </c>
       <c r="F35" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G35" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6489,10 +6489,10 @@
         <v>196</v>
       </c>
       <c r="F36" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G36" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6512,10 +6512,10 @@
         <v>196</v>
       </c>
       <c r="F37" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G37" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6535,10 +6535,10 @@
         <v>196</v>
       </c>
       <c r="F38" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G38" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6558,10 +6558,10 @@
         <v>196</v>
       </c>
       <c r="F39" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G39" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6601,15 +6601,15 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.90625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="47.88671875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="83" t="s">
         <v>182</v>
       </c>
@@ -6629,7 +6629,7 @@
       </c>
       <c r="C2" s="80"/>
     </row>
-    <row r="3" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="83" t="s">
         <v>202</v>
       </c>
@@ -6638,7 +6638,7 @@
       </c>
       <c r="C3" s="80"/>
     </row>
-    <row r="4" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="84" t="s">
         <v>58</v>
       </c>
@@ -6647,7 +6647,7 @@
       </c>
       <c r="C4" s="80"/>
     </row>
-    <row r="5" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="84" t="s">
         <v>132</v>
       </c>
@@ -6656,77 +6656,77 @@
       </c>
       <c r="C5" s="80"/>
     </row>
-    <row r="6" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="84"/>
       <c r="B6" s="85"/>
       <c r="C6" s="85"/>
     </row>
-    <row r="7" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="84"/>
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
     </row>
-    <row r="8" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="84"/>
       <c r="B8" s="85"/>
       <c r="C8" s="85"/>
     </row>
-    <row r="9" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="84"/>
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
     </row>
-    <row r="10" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="84"/>
       <c r="B10" s="85"/>
       <c r="C10" s="85"/>
     </row>
-    <row r="11" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="86"/>
       <c r="B11" s="85"/>
       <c r="C11" s="85"/>
     </row>
-    <row r="12" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="86"/>
       <c r="B12" s="85"/>
       <c r="C12" s="85"/>
     </row>
-    <row r="13" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="86"/>
       <c r="B13" s="85"/>
       <c r="C13" s="85"/>
     </row>
-    <row r="14" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="86"/>
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
     </row>
-    <row r="15" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="86"/>
       <c r="B15" s="85"/>
       <c r="C15" s="85"/>
     </row>
-    <row r="16" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="86"/>
       <c r="B16" s="85"/>
       <c r="C16" s="85"/>
     </row>
-    <row r="17" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="86"/>
       <c r="B17" s="85"/>
       <c r="C17" s="85"/>
     </row>
-    <row r="18" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="86"/>
       <c r="B18" s="85"/>
       <c r="C18" s="85"/>
     </row>
-    <row r="19" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="84"/>
       <c r="B19" s="85"/>
       <c r="C19" s="85"/>
     </row>
-    <row r="20" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="84"/>
       <c r="B20" s="85"/>
       <c r="C20" s="85"/>
@@ -6750,85 +6750,85 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.08984375" style="35" customWidth="1"/>
-    <col min="2" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="30.109375" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="48"/>
     </row>
-    <row r="13" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="48"/>
     </row>
-    <row r="14" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="48"/>
     </row>
-    <row r="15" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="48"/>
     </row>
-    <row r="16" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="48"/>
     </row>
-    <row r="18" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
     </row>
-    <row r="19" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
     </row>
   </sheetData>
@@ -6848,7 +6848,7 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -6962,19 +6962,19 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.90625" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.88671875" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -7582,7 +7582,7 @@
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="33"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>86</v>
@@ -7678,7 +7678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>182</v>
@@ -7727,7 +7727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="11" t="s">
         <v>202</v>
@@ -7963,7 +7963,7 @@
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="33"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="58" t="s">
         <v>37</v>
       </c>
@@ -8213,7 +8213,7 @@
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>35</v>
       </c>
@@ -8722,7 +8722,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
@@ -8760,16 +8760,16 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.6328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="35" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" style="35"/>
-    <col min="5" max="5" width="17.453125" style="35" customWidth="1"/>
-    <col min="6" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="33.6640625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="35" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" style="35"/>
+    <col min="5" max="5" width="17.44140625" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>158</v>
       </c>
@@ -8786,7 +8786,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>153</v>
       </c>
@@ -8804,7 +8804,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>152</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>151</v>
       </c>
@@ -8840,7 +8840,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>150</v>
       </c>
@@ -8858,7 +8858,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>149</v>
       </c>
@@ -8876,7 +8876,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
         <v>148</v>
       </c>
@@ -8894,7 +8894,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
         <v>147</v>
       </c>
@@ -8912,7 +8912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
         <v>146</v>
       </c>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
         <v>145</v>
       </c>
@@ -8969,20 +8969,20 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="55" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.08984375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.36328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.08984375" style="55"/>
+    <col min="6" max="7" width="13.109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.33203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.109375" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="56" t="s">
         <v>33</v>
       </c>
@@ -9029,7 +9029,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="56" t="s">
         <v>31</v>
       </c>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="52" t="s">
         <v>144</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="52" t="s">
         <v>168</v>
       </c>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="52" t="s">
         <v>193</v>
       </c>
@@ -9208,7 +9208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="52" t="s">
         <v>194</v>
       </c>
@@ -9252,7 +9252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="52" t="s">
         <v>190</v>
       </c>
@@ -9296,7 +9296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="52" t="s">
         <v>131</v>
       </c>
@@ -9340,7 +9340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="52" t="s">
         <v>132</v>
       </c>
@@ -9384,7 +9384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="52" t="s">
         <v>84</v>
       </c>
@@ -9428,7 +9428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="52" t="s">
         <v>58</v>
       </c>
@@ -9472,7 +9472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="52" t="s">
         <v>337</v>
       </c>
@@ -9516,7 +9516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="52" t="s">
         <v>67</v>
       </c>
@@ -9560,7 +9560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="52" t="s">
         <v>28</v>
       </c>
@@ -9604,7 +9604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="52" t="s">
         <v>85</v>
       </c>
@@ -9648,7 +9648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="52" t="s">
         <v>60</v>
       </c>
@@ -9692,7 +9692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="52"/>
       <c r="C17" s="129"/>
       <c r="D17" s="129"/>
@@ -9708,7 +9708,7 @@
       <c r="N17" s="129"/>
       <c r="O17" s="129"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="56" t="s">
         <v>32</v>
       </c>
@@ -9755,7 +9755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="56"/>
       <c r="B19" s="52" t="s">
         <v>86</v>
@@ -9800,7 +9800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="90" t="s">
         <v>182</v>
       </c>
@@ -9844,7 +9844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="90" t="s">
         <v>202</v>
       </c>
@@ -9888,7 +9888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="91" t="s">
         <v>57</v>
       </c>
@@ -9932,7 +9932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="52" t="s">
         <v>88</v>
       </c>
@@ -9976,7 +9976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="52" t="s">
         <v>87</v>
       </c>
@@ -10020,7 +10020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="52" t="s">
         <v>59</v>
       </c>
@@ -10064,7 +10064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="52"/>
       <c r="C26" s="129"/>
       <c r="D26" s="129"/>
@@ -10080,7 +10080,7 @@
       <c r="N26" s="129"/>
       <c r="O26" s="129"/>
     </row>
-    <row r="27" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="56" t="s">
         <v>37</v>
       </c>
@@ -10128,7 +10128,7 @@
       </c>
       <c r="P27" s="92"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="59" t="s">
         <v>183</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="56"/>
       <c r="B29" s="59" t="s">
         <v>201</v>
@@ -10217,7 +10217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="59" t="s">
         <v>184</v>
       </c>
@@ -10261,7 +10261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="59" t="s">
         <v>185</v>
       </c>
@@ -10305,7 +10305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="52"/>
       <c r="C32" s="130"/>
       <c r="D32" s="130"/>
@@ -10321,7 +10321,7 @@
       <c r="N32" s="129"/>
       <c r="O32" s="129"/>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="56" t="s">
         <v>35</v>
       </c>
@@ -10368,7 +10368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="52" t="s">
         <v>64</v>
       </c>
@@ -10412,7 +10412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="52" t="s">
         <v>62</v>
       </c>
@@ -10456,7 +10456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="52" t="s">
         <v>47</v>
       </c>
@@ -10500,7 +10500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="52" t="s">
         <v>34</v>
       </c>
@@ -10544,7 +10544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="93"/>
       <c r="B38" s="52" t="s">
         <v>83</v>
@@ -10589,7 +10589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="52" t="s">
         <v>82</v>
       </c>
@@ -10633,7 +10633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="52" t="s">
         <v>81</v>
       </c>
@@ -10677,7 +10677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="52" t="s">
         <v>79</v>
       </c>
@@ -10721,7 +10721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="52" t="s">
         <v>80</v>
       </c>
@@ -10782,22 +10782,22 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -10832,7 +10832,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>29</v>
       </c>
@@ -10849,7 +10849,7 @@
       <c r="J2" s="133"/>
       <c r="K2" s="133"/>
     </row>
-    <row r="3" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
         <v>86</v>
       </c>
@@ -10866,7 +10866,7 @@
       <c r="J3" s="133"/>
       <c r="K3" s="133"/>
     </row>
-    <row r="4" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
         <v>61</v>
       </c>
@@ -10883,7 +10883,7 @@
       <c r="J4" s="133"/>
       <c r="K4" s="133"/>
     </row>
-    <row r="5" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>144</v>
       </c>
@@ -10900,7 +10900,7 @@
       <c r="J5" s="133"/>
       <c r="K5" s="133"/>
     </row>
-    <row r="6" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
         <v>192</v>
       </c>
@@ -10919,7 +10919,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
         <v>63</v>
       </c>
@@ -10938,7 +10938,7 @@
       <c r="J7" s="133"/>
       <c r="K7" s="133"/>
     </row>
-    <row r="8" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
         <v>64</v>
       </c>
@@ -10957,7 +10957,7 @@
       <c r="J8" s="133"/>
       <c r="K8" s="133"/>
     </row>
-    <row r="9" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>62</v>
       </c>
@@ -10976,7 +10976,7 @@
       <c r="J9" s="133"/>
       <c r="K9" s="133"/>
     </row>
-    <row r="10" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="59" t="s">
         <v>183</v>
       </c>
@@ -10993,7 +10993,7 @@
       <c r="J10" s="133"/>
       <c r="K10" s="133"/>
     </row>
-    <row r="11" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="59" t="s">
         <v>201</v>
       </c>
@@ -11010,7 +11010,7 @@
       <c r="J11" s="133"/>
       <c r="K11" s="133"/>
     </row>
-    <row r="12" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="59" t="s">
         <v>184</v>
       </c>
@@ -11027,7 +11027,7 @@
       <c r="J12" s="133"/>
       <c r="K12" s="133"/>
     </row>
-    <row r="13" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="59" t="s">
         <v>185</v>
       </c>
@@ -11044,7 +11044,7 @@
       <c r="J13" s="133"/>
       <c r="K13" s="133"/>
     </row>
-    <row r="14" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="90" t="s">
         <v>182</v>
       </c>
@@ -11063,7 +11063,7 @@
       <c r="J14" s="133"/>
       <c r="K14" s="133"/>
     </row>
-    <row r="15" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="90" t="s">
         <v>202</v>
       </c>
@@ -11082,7 +11082,7 @@
       <c r="J15" s="133"/>
       <c r="K15" s="133"/>
     </row>
-    <row r="16" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
         <v>57</v>
       </c>
@@ -11103,7 +11103,7 @@
       <c r="J16" s="133"/>
       <c r="K16" s="133"/>
     </row>
-    <row r="17" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>47</v>
       </c>
@@ -11120,7 +11120,7 @@
       <c r="J17" s="133"/>
       <c r="K17" s="133"/>
     </row>
-    <row r="18" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
         <v>168</v>
       </c>
@@ -11139,7 +11139,7 @@
       <c r="J18" s="133"/>
       <c r="K18" s="133"/>
     </row>
-    <row r="19" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
         <v>193</v>
       </c>
@@ -11158,7 +11158,7 @@
       <c r="J19" s="133"/>
       <c r="K19" s="133"/>
     </row>
-    <row r="20" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="52" t="s">
         <v>194</v>
       </c>
@@ -11177,7 +11177,7 @@
       <c r="J20" s="133"/>
       <c r="K20" s="133"/>
     </row>
-    <row r="21" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
         <v>190</v>
       </c>
@@ -11196,7 +11196,7 @@
       <c r="J21" s="133"/>
       <c r="K21" s="133"/>
     </row>
-    <row r="22" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="52" t="s">
         <v>131</v>
       </c>
@@ -11217,7 +11217,7 @@
       <c r="J22" s="133"/>
       <c r="K22" s="133"/>
     </row>
-    <row r="23" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="52" t="s">
         <v>34</v>
       </c>
@@ -11236,7 +11236,7 @@
       <c r="J23" s="133"/>
       <c r="K23" s="133"/>
     </row>
-    <row r="24" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="52" t="s">
         <v>88</v>
       </c>
@@ -11253,7 +11253,7 @@
       <c r="J24" s="133"/>
       <c r="K24" s="133"/>
     </row>
-    <row r="25" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="52" t="s">
         <v>87</v>
       </c>
@@ -11270,7 +11270,7 @@
       <c r="J25" s="133"/>
       <c r="K25" s="133"/>
     </row>
-    <row r="26" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="s">
         <v>132</v>
       </c>
@@ -11287,7 +11287,7 @@
       <c r="J26" s="133"/>
       <c r="K26" s="133"/>
     </row>
-    <row r="27" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="52" t="s">
         <v>59</v>
       </c>
@@ -11306,7 +11306,7 @@
       <c r="J27" s="133"/>
       <c r="K27" s="133"/>
     </row>
-    <row r="28" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
         <v>84</v>
       </c>
@@ -11323,7 +11323,7 @@
       <c r="J28" s="133"/>
       <c r="K28" s="133"/>
     </row>
-    <row r="29" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
         <v>58</v>
       </c>
@@ -11342,7 +11342,7 @@
       <c r="J29" s="133"/>
       <c r="K29" s="133"/>
     </row>
-    <row r="30" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
         <v>337</v>
       </c>
@@ -11363,7 +11363,7 @@
       <c r="J30" s="133"/>
       <c r="K30" s="133"/>
     </row>
-    <row r="31" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
         <v>67</v>
       </c>
@@ -11380,7 +11380,7 @@
       <c r="J31" s="133"/>
       <c r="K31" s="133"/>
     </row>
-    <row r="32" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
         <v>28</v>
       </c>
@@ -11399,7 +11399,7 @@
       <c r="J32" s="133"/>
       <c r="K32" s="133"/>
     </row>
-    <row r="33" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
         <v>83</v>
       </c>
@@ -11418,7 +11418,7 @@
       <c r="J33" s="133"/>
       <c r="K33" s="133"/>
     </row>
-    <row r="34" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
         <v>82</v>
       </c>
@@ -11437,7 +11437,7 @@
       <c r="J34" s="133"/>
       <c r="K34" s="133"/>
     </row>
-    <row r="35" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
         <v>81</v>
       </c>
@@ -11456,7 +11456,7 @@
       <c r="J35" s="133"/>
       <c r="K35" s="133"/>
     </row>
-    <row r="36" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="52" t="s">
         <v>79</v>
       </c>
@@ -11475,7 +11475,7 @@
       <c r="J36" s="133"/>
       <c r="K36" s="133"/>
     </row>
-    <row r="37" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="52" t="s">
         <v>80</v>
       </c>
@@ -11494,7 +11494,7 @@
       <c r="J37" s="133"/>
       <c r="K37" s="133"/>
     </row>
-    <row r="38" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="52" t="s">
         <v>85</v>
       </c>
@@ -11511,7 +11511,7 @@
       <c r="J38" s="133"/>
       <c r="K38" s="133"/>
     </row>
-    <row r="39" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="52" t="s">
         <v>60</v>
       </c>
@@ -11549,22 +11549,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>211</v>
       </c>
@@ -11599,7 +11599,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -11628,7 +11628,7 @@
       <c r="J2" s="133"/>
       <c r="K2" s="133"/>
     </row>
-    <row r="3" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -11657,7 +11657,7 @@
       <c r="J3" s="133"/>
       <c r="K3" s="133"/>
     </row>
-    <row r="4" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -11686,7 +11686,7 @@
       <c r="J4" s="133"/>
       <c r="K4" s="133"/>
     </row>
-    <row r="5" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
@@ -11715,7 +11715,7 @@
       <c r="J5" s="133"/>
       <c r="K5" s="133"/>
     </row>
-    <row r="6" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
@@ -11744,7 +11744,7 @@
       <c r="J6" s="133"/>
       <c r="K6" s="133"/>
     </row>
-    <row r="7" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>53</v>
       </c>
@@ -11765,7 +11765,7 @@
       <c r="J7" s="133"/>
       <c r="K7" s="133"/>
     </row>
-    <row r="8" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>54</v>
       </c>
@@ -11786,7 +11786,7 @@
       <c r="J8" s="133"/>
       <c r="K8" s="133"/>
     </row>
-    <row r="9" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>55</v>
       </c>
@@ -11807,7 +11807,7 @@
       <c r="J9" s="133"/>
       <c r="K9" s="133"/>
     </row>
-    <row r="10" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>56</v>
       </c>
@@ -11828,7 +11828,7 @@
       <c r="J10" s="133"/>
       <c r="K10" s="133"/>
     </row>
-    <row r="11" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>49</v>
       </c>
@@ -11849,7 +11849,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>50</v>
       </c>
@@ -11868,7 +11868,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>51</v>
       </c>
@@ -11887,7 +11887,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>52</v>
       </c>
@@ -11923,14 +11923,14 @@
       <selection activeCell="K3" sqref="K3:K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="12" customWidth="1"/>
-    <col min="2" max="9" width="16.90625" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="8.44140625" style="12" customWidth="1"/>
+    <col min="2" max="9" width="16.88671875" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -13018,15 +13018,15 @@
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.08984375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="48.109375" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="12.81640625" style="35"/>
+    <col min="3" max="3" width="14.6640625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>212</v>
       </c>
@@ -13052,7 +13052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>213</v>
       </c>
@@ -13078,7 +13078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="148"/>
       <c r="C3" s="35" t="s">
         <v>170</v>
@@ -13100,7 +13100,7 @@
       </c>
       <c r="J3" s="95"/>
     </row>
-    <row r="4" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="148"/>
       <c r="C4" s="35" t="s">
         <v>169</v>
@@ -13122,7 +13122,7 @@
       </c>
       <c r="J4" s="95"/>
     </row>
-    <row r="5" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="148" t="s">
         <v>1</v>
       </c>
@@ -13146,7 +13146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="148"/>
       <c r="C6" s="35" t="s">
         <v>170</v>
@@ -13167,7 +13167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="148"/>
       <c r="C7" s="35" t="s">
         <v>169</v>
@@ -13188,7 +13188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="148" t="s">
         <v>2</v>
       </c>
@@ -13211,7 +13211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="148"/>
       <c r="C9" s="35" t="s">
         <v>170</v>
@@ -13232,7 +13232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="148"/>
       <c r="C10" s="35" t="s">
         <v>169</v>
@@ -13253,7 +13253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="148" t="s">
         <v>3</v>
       </c>
@@ -13276,7 +13276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="148"/>
       <c r="C12" s="35" t="s">
         <v>170</v>
@@ -13297,7 +13297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="148"/>
       <c r="C13" s="35" t="s">
         <v>169</v>
@@ -13318,7 +13318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="148" t="s">
         <v>4</v>
       </c>
@@ -13341,7 +13341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="148"/>
       <c r="C15" s="35" t="s">
         <v>170</v>
@@ -13362,7 +13362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="148"/>
       <c r="C16" s="35" t="s">
         <v>169</v>
@@ -13383,7 +13383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="96" t="s">
         <v>167</v>
       </c>
@@ -13406,14 +13406,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D18" s="132"/>
       <c r="E18" s="132"/>
       <c r="F18" s="132"/>
       <c r="G18" s="132"/>
       <c r="H18" s="132"/>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
         <v>214</v>
       </c>
@@ -13439,7 +13439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="148"/>
       <c r="C20" s="35" t="s">
         <v>170</v>
@@ -13460,7 +13460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="148"/>
       <c r="C21" s="35" t="s">
         <v>169</v>
@@ -13481,7 +13481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" s="148" t="s">
         <v>1</v>
       </c>
@@ -13504,7 +13504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="148"/>
       <c r="C23" s="35" t="s">
         <v>170</v>
@@ -13525,7 +13525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="148"/>
       <c r="C24" s="35" t="s">
         <v>169</v>
@@ -13546,7 +13546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="148" t="s">
         <v>2</v>
       </c>
@@ -13569,7 +13569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="148"/>
       <c r="C26" s="35" t="s">
         <v>170</v>
@@ -13590,7 +13590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="148"/>
       <c r="C27" s="35" t="s">
         <v>169</v>
@@ -13611,7 +13611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="148" t="s">
         <v>3</v>
       </c>
@@ -13634,7 +13634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="148"/>
       <c r="C29" s="35" t="s">
         <v>170</v>
@@ -13655,7 +13655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="148"/>
       <c r="C30" s="35" t="s">
         <v>169</v>
@@ -13676,7 +13676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="148" t="s">
         <v>4</v>
       </c>
@@ -13699,7 +13699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="148"/>
       <c r="C32" s="35" t="s">
         <v>170</v>
@@ -13720,7 +13720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="148"/>
       <c r="C33" s="35" t="s">
         <v>169</v>
@@ -13741,7 +13741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="96" t="s">
         <v>167</v>
       </c>
@@ -13764,14 +13764,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D35" s="132"/>
       <c r="E35" s="132"/>
       <c r="F35" s="132"/>
       <c r="G35" s="132"/>
       <c r="H35" s="132"/>
     </row>
-    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="97" t="s">
         <v>215</v>
       </c>
@@ -13797,7 +13797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="148"/>
       <c r="C37" s="35" t="s">
         <v>170</v>
@@ -13818,7 +13818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="148"/>
       <c r="C38" s="35" t="s">
         <v>169</v>
@@ -13839,7 +13839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="148" t="s">
         <v>1</v>
       </c>
@@ -13862,7 +13862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="148"/>
       <c r="C40" s="35" t="s">
         <v>170</v>
@@ -13883,7 +13883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="148"/>
       <c r="C41" s="35" t="s">
         <v>169</v>
@@ -13904,7 +13904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="148" t="s">
         <v>2</v>
       </c>
@@ -13927,7 +13927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="148"/>
       <c r="C43" s="35" t="s">
         <v>170</v>
@@ -13948,7 +13948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="148"/>
       <c r="C44" s="35" t="s">
         <v>169</v>
@@ -13969,7 +13969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="148" t="s">
         <v>3</v>
       </c>
@@ -13992,7 +13992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="148"/>
       <c r="C46" s="35" t="s">
         <v>170</v>
@@ -14013,7 +14013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" s="148"/>
       <c r="C47" s="35" t="s">
         <v>169</v>
@@ -14034,7 +14034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B48" s="148" t="s">
         <v>4</v>
       </c>
@@ -14057,7 +14057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B49" s="148"/>
       <c r="C49" s="35" t="s">
         <v>170</v>
@@ -14078,7 +14078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B50" s="148"/>
       <c r="C50" s="35" t="s">
         <v>169</v>
@@ -14099,7 +14099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B51" s="98" t="s">
         <v>167</v>
       </c>
@@ -14122,7 +14122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="140" t="s">
         <v>267</v>
       </c>
@@ -14134,7 +14134,7 @@
       <c r="G53" s="140"/>
       <c r="H53" s="140"/>
     </row>
-    <row r="54" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="40" t="s">
         <v>212</v>
       </c>
@@ -14160,7 +14160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="40" t="s">
         <v>311</v>
       </c>
@@ -14191,7 +14191,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B56" s="148"/>
       <c r="C56" s="35" t="s">
         <v>170</v>
@@ -14217,7 +14217,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B57" s="148"/>
       <c r="C57" s="35" t="s">
         <v>169</v>
@@ -14243,7 +14243,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B58" s="148" t="s">
         <v>1</v>
       </c>
@@ -14271,7 +14271,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B59" s="148"/>
       <c r="C59" s="35" t="s">
         <v>170</v>
@@ -14297,7 +14297,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B60" s="148"/>
       <c r="C60" s="35" t="s">
         <v>169</v>
@@ -14323,7 +14323,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B61" s="148" t="s">
         <v>2</v>
       </c>
@@ -14351,7 +14351,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B62" s="148"/>
       <c r="C62" s="35" t="s">
         <v>170</v>
@@ -14377,7 +14377,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B63" s="148"/>
       <c r="C63" s="35" t="s">
         <v>169</v>
@@ -14403,7 +14403,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B64" s="148" t="s">
         <v>3</v>
       </c>
@@ -14431,7 +14431,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B65" s="148"/>
       <c r="C65" s="35" t="s">
         <v>170</v>
@@ -14457,7 +14457,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B66" s="148"/>
       <c r="C66" s="35" t="s">
         <v>169</v>
@@ -14483,7 +14483,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B67" s="148" t="s">
         <v>4</v>
       </c>
@@ -14511,7 +14511,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B68" s="148"/>
       <c r="C68" s="35" t="s">
         <v>170</v>
@@ -14537,7 +14537,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B69" s="148"/>
       <c r="C69" s="35" t="s">
         <v>169</v>
@@ -14563,7 +14563,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" s="138" t="s">
         <v>167</v>
       </c>
@@ -14591,14 +14591,14 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D71" s="132"/>
       <c r="E71" s="132"/>
       <c r="F71" s="132"/>
       <c r="G71" s="132"/>
       <c r="H71" s="132"/>
     </row>
-    <row r="72" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="40" t="s">
         <v>312</v>
       </c>
@@ -14629,7 +14629,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B73" s="148"/>
       <c r="C73" s="35" t="s">
         <v>170</v>
@@ -14655,7 +14655,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B74" s="148"/>
       <c r="C74" s="35" t="s">
         <v>169</v>
@@ -14681,7 +14681,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B75" s="148" t="s">
         <v>1</v>
       </c>
@@ -14709,7 +14709,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B76" s="148"/>
       <c r="C76" s="35" t="s">
         <v>170</v>
@@ -14735,7 +14735,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B77" s="148"/>
       <c r="C77" s="35" t="s">
         <v>169</v>
@@ -14761,7 +14761,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B78" s="148" t="s">
         <v>2</v>
       </c>
@@ -14789,7 +14789,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B79" s="148"/>
       <c r="C79" s="35" t="s">
         <v>170</v>
@@ -14815,7 +14815,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B80" s="148"/>
       <c r="C80" s="35" t="s">
         <v>169</v>
@@ -14841,7 +14841,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B81" s="148" t="s">
         <v>3</v>
       </c>
@@ -14869,7 +14869,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B82" s="148"/>
       <c r="C82" s="35" t="s">
         <v>170</v>
@@ -14895,7 +14895,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B83" s="148"/>
       <c r="C83" s="35" t="s">
         <v>169</v>
@@ -14921,7 +14921,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B84" s="148" t="s">
         <v>4</v>
       </c>
@@ -14949,7 +14949,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B85" s="148"/>
       <c r="C85" s="35" t="s">
         <v>170</v>
@@ -14975,7 +14975,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B86" s="148"/>
       <c r="C86" s="35" t="s">
         <v>169</v>
@@ -15001,7 +15001,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B87" s="138" t="s">
         <v>167</v>
       </c>
@@ -15029,14 +15029,14 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D88" s="132"/>
       <c r="E88" s="132"/>
       <c r="F88" s="132"/>
       <c r="G88" s="132"/>
       <c r="H88" s="132"/>
     </row>
-    <row r="89" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="97" t="s">
         <v>313</v>
       </c>
@@ -15067,7 +15067,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B90" s="148"/>
       <c r="C90" s="35" t="s">
         <v>170</v>
@@ -15093,7 +15093,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B91" s="148"/>
       <c r="C91" s="35" t="s">
         <v>169</v>
@@ -15119,7 +15119,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B92" s="148" t="s">
         <v>1</v>
       </c>
@@ -15147,7 +15147,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B93" s="148"/>
       <c r="C93" s="35" t="s">
         <v>170</v>
@@ -15173,7 +15173,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B94" s="148"/>
       <c r="C94" s="35" t="s">
         <v>169</v>
@@ -15199,7 +15199,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B95" s="148" t="s">
         <v>2</v>
       </c>
@@ -15227,7 +15227,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B96" s="148"/>
       <c r="C96" s="35" t="s">
         <v>170</v>
@@ -15253,7 +15253,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B97" s="148"/>
       <c r="C97" s="35" t="s">
         <v>169</v>
@@ -15279,7 +15279,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B98" s="148" t="s">
         <v>3</v>
       </c>
@@ -15439,7 +15439,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B104" s="98" t="s">
         <v>167</v>
       </c>
@@ -15467,7 +15467,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="140" t="s">
         <v>268</v>
       </c>
@@ -15479,7 +15479,7 @@
       <c r="G106" s="140"/>
       <c r="H106" s="140"/>
     </row>
-    <row r="107" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="40" t="s">
         <v>212</v>
       </c>
@@ -15505,7 +15505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="40" t="s">
         <v>314</v>
       </c>
@@ -15908,7 +15908,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B123" s="138" t="s">
         <v>167</v>
       </c>
@@ -15943,7 +15943,7 @@
       <c r="G124" s="132"/>
       <c r="H124" s="132"/>
     </row>
-    <row r="125" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="40" t="s">
         <v>315</v>
       </c>
@@ -16346,7 +16346,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B140" s="138" t="s">
         <v>167</v>
       </c>
@@ -16381,7 +16381,7 @@
       <c r="G141" s="132"/>
       <c r="H141" s="132"/>
     </row>
-    <row r="142" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="97" t="s">
         <v>316</v>
       </c>
@@ -16784,7 +16784,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="157" spans="2:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157" s="98" t="s">
         <v>167</v>
       </c>
@@ -16815,12 +16815,36 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="45">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="B137:B139"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -16830,36 +16854,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B137:B139"/>
-    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -16880,22 +16880,22 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.90625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="34.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="35" customWidth="1"/>
     <col min="5" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="16384" width="16.08984375" style="35"/>
+    <col min="7" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="99" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="101"/>
       <c r="C2" s="102" t="s">
         <v>26</v>
@@ -16910,7 +16910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>217</v>
       </c>
@@ -16994,7 +16994,7 @@
       <c r="E8" s="95"/>
       <c r="F8" s="95"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>218</v>
       </c>
@@ -17019,7 +17019,7 @@
       <c r="F10" s="95"/>
       <c r="G10" s="109"/>
     </row>
-    <row r="11" spans="1:7" s="100" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="100" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="99" t="s">
         <v>219</v>
       </c>
@@ -17029,7 +17029,7 @@
       <c r="F11" s="111"/>
       <c r="G11" s="112"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>220</v>
       </c>
@@ -17093,7 +17093,7 @@
       </c>
       <c r="G15" s="109"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="113"/>
       <c r="C16" s="114"/>
@@ -17102,7 +17102,7 @@
       <c r="F16" s="95"/>
       <c r="G16" s="109"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
         <v>224</v>
       </c>
@@ -17256,7 +17256,7 @@
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="113"/>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="140" t="s">
         <v>267</v>
       </c>
@@ -17266,12 +17266,12 @@
       <c r="E27" s="143"/>
       <c r="F27" s="143"/>
     </row>
-    <row r="28" spans="1:7" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="99" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="101"/>
       <c r="C29" s="102" t="s">
         <v>26</v>
@@ -17286,7 +17286,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="40" t="s">
         <v>297</v>
       </c>
@@ -17386,7 +17386,7 @@
       <c r="E35" s="95"/>
       <c r="F35" s="95"/>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="40" t="s">
         <v>304</v>
       </c>
@@ -17407,7 +17407,7 @@
         <v>1.071</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="99" t="s">
         <v>219</v>
       </c>
@@ -17417,7 +17417,7 @@
       <c r="E38" s="111"/>
       <c r="F38" s="111"/>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="40" t="s">
         <v>298</v>
       </c>
@@ -17489,7 +17489,7 @@
         <v>2.9330000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="113"/>
       <c r="C43" s="114"/>
@@ -17497,7 +17497,7 @@
       <c r="E43" s="95"/>
       <c r="F43" s="95"/>
     </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="40" t="s">
         <v>302</v>
       </c>
@@ -17675,7 +17675,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="140" t="s">
         <v>268</v>
       </c>
@@ -17685,12 +17685,12 @@
       <c r="E54" s="143"/>
       <c r="F54" s="143"/>
     </row>
-    <row r="55" spans="1:6" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="99" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="101"/>
       <c r="C56" s="102" t="s">
         <v>26</v>
@@ -17705,7 +17705,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="40" t="s">
         <v>303</v>
       </c>
@@ -17805,7 +17805,7 @@
       <c r="E62" s="95"/>
       <c r="F62" s="95"/>
     </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="40" t="s">
         <v>305</v>
       </c>
@@ -17826,7 +17826,7 @@
         <v>1.9890000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="99" t="s">
         <v>219</v>
       </c>
@@ -17836,7 +17836,7 @@
       <c r="E65" s="111"/>
       <c r="F65" s="111"/>
     </row>
-    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="40" t="s">
         <v>306</v>
       </c>
@@ -17908,7 +17908,7 @@
         <v>5.447000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="113"/>
       <c r="C70" s="114"/>
@@ -17916,7 +17916,7 @@
       <c r="E70" s="95"/>
       <c r="F70" s="95"/>
     </row>
-    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="40" t="s">
         <v>310</v>
       </c>
@@ -18115,23 +18115,23 @@
       <selection activeCell="I328" sqref="I328"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="35" customWidth="1"/>
-    <col min="4" max="8" width="14.81640625" style="35" customWidth="1"/>
-    <col min="9" max="12" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="27.21875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="35" customWidth="1"/>
+    <col min="4" max="8" width="14.77734375" style="35" customWidth="1"/>
+    <col min="9" max="12" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="99" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="118" t="s">
         <v>206</v>
       </c>
@@ -18165,7 +18165,7 @@
       <c r="O2" s="120"/>
       <c r="P2" s="120"/>
     </row>
-    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>71</v>
@@ -18598,7 +18598,7 @@
       <c r="O17" s="118"/>
       <c r="P17" s="118"/>
     </row>
-    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="43" t="s">
         <v>231</v>
       </c>
@@ -18856,12 +18856,12 @@
       <c r="O26" s="118"/>
       <c r="P26" s="118"/>
     </row>
-    <row r="28" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="99" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="121" t="s">
         <v>233</v>
       </c>
@@ -18895,7 +18895,7 @@
       <c r="O29" s="120"/>
       <c r="P29" s="120"/>
     </row>
-    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>71</v>
@@ -19590,12 +19590,12 @@
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="99" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A56" s="121" t="s">
         <v>70</v>
       </c>
@@ -19623,7 +19623,7 @@
       <c r="O56" s="120"/>
       <c r="P56" s="120"/>
     </row>
-    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>38</v>
@@ -19769,12 +19769,12 @@
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="99" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A65" s="121" t="s">
         <v>24</v>
       </c>
@@ -19808,7 +19808,7 @@
       <c r="O65" s="120"/>
       <c r="P65" s="120"/>
     </row>
-    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="125"/>
       <c r="B66" s="35" t="s">
         <v>73</v>
@@ -20844,12 +20844,12 @@
       <c r="O101" s="118"/>
       <c r="P101" s="118"/>
     </row>
-    <row r="103" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="99" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A104" s="121" t="s">
         <v>71</v>
       </c>
@@ -20883,7 +20883,7 @@
       <c r="O104" s="120"/>
       <c r="P104" s="120"/>
     </row>
-    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -20997,13 +20997,13 @@
       <c r="O108" s="118"/>
       <c r="P108" s="118"/>
     </row>
-    <row r="110" spans="1:16" s="141" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" s="141" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="140" t="s">
         <v>267</v>
       </c>
       <c r="H110" s="140"/>
     </row>
-    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="99" t="s">
         <v>225</v>
       </c>
@@ -21015,7 +21015,7 @@
       <c r="G111" s="100"/>
       <c r="H111" s="100"/>
     </row>
-    <row r="112" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="118" t="s">
         <v>206</v>
       </c>
@@ -21041,7 +21041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="35" t="s">
         <v>71</v>
@@ -21660,7 +21660,7 @@
         <v>2.4079999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="99" t="s">
         <v>232</v>
       </c>
@@ -21672,7 +21672,7 @@
       <c r="G138" s="100"/>
       <c r="H138" s="100"/>
     </row>
-    <row r="139" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="121" t="s">
         <v>233</v>
       </c>
@@ -21698,7 +21698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="35" t="s">
         <v>71</v>
@@ -22321,7 +22321,7 @@
       <c r="C164" s="43"/>
       <c r="D164" s="43"/>
     </row>
-    <row r="165" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="99" t="s">
         <v>235</v>
       </c>
@@ -22333,7 +22333,7 @@
       <c r="G165" s="100"/>
       <c r="H165" s="100"/>
     </row>
-    <row r="166" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A166" s="121" t="s">
         <v>70</v>
       </c>
@@ -22357,7 +22357,7 @@
       </c>
       <c r="H166" s="120"/>
     </row>
-    <row r="167" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="35" t="s">
         <v>38</v>
@@ -22503,7 +22503,7 @@
       <c r="C173" s="43"/>
       <c r="D173" s="43"/>
     </row>
-    <row r="174" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="99" t="s">
         <v>239</v>
       </c>
@@ -22515,7 +22515,7 @@
       <c r="G174" s="100"/>
       <c r="H174" s="100"/>
     </row>
-    <row r="175" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A175" s="121" t="s">
         <v>24</v>
       </c>
@@ -22541,7 +22541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="125"/>
       <c r="B176" s="35" t="s">
         <v>73</v>
@@ -23433,7 +23433,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="99" t="s">
         <v>241</v>
       </c>
@@ -23445,7 +23445,7 @@
       <c r="G213" s="100"/>
       <c r="H213" s="100"/>
     </row>
-    <row r="214" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A214" s="121" t="s">
         <v>71</v>
       </c>
@@ -23471,7 +23471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="36"/>
       <c r="C215" s="43" t="s">
@@ -23569,13 +23569,13 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="220" spans="1:9" s="141" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" s="141" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="140" t="s">
         <v>268</v>
       </c>
       <c r="H220" s="140"/>
     </row>
-    <row r="221" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="99" t="s">
         <v>225</v>
       </c>
@@ -23588,7 +23588,7 @@
       <c r="H221" s="100"/>
       <c r="I221" s="100"/>
     </row>
-    <row r="222" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="118" t="s">
         <v>206</v>
       </c>
@@ -23615,7 +23615,7 @@
       </c>
       <c r="I222" s="120"/>
     </row>
-    <row r="223" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="35" t="s">
         <v>71</v>
@@ -24258,7 +24258,7 @@
       </c>
       <c r="I246" s="118"/>
     </row>
-    <row r="248" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="99" t="s">
         <v>232</v>
       </c>
@@ -24271,7 +24271,7 @@
       <c r="H248" s="100"/>
       <c r="I248" s="100"/>
     </row>
-    <row r="249" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="121" t="s">
         <v>233</v>
       </c>
@@ -24298,7 +24298,7 @@
       </c>
       <c r="I249" s="120"/>
     </row>
-    <row r="250" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="35" t="s">
         <v>71</v>
@@ -24945,7 +24945,7 @@
       <c r="C274" s="43"/>
       <c r="D274" s="43"/>
     </row>
-    <row r="275" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="99" t="s">
         <v>235</v>
       </c>
@@ -24958,7 +24958,7 @@
       <c r="H275" s="100"/>
       <c r="I275" s="100"/>
     </row>
-    <row r="276" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A276" s="121" t="s">
         <v>70</v>
       </c>
@@ -24983,7 +24983,7 @@
       <c r="H276" s="120"/>
       <c r="I276" s="36"/>
     </row>
-    <row r="277" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="40"/>
       <c r="B277" s="35" t="s">
         <v>38</v>
@@ -25129,7 +25129,7 @@
       <c r="C283" s="43"/>
       <c r="D283" s="43"/>
     </row>
-    <row r="284" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="99" t="s">
         <v>239</v>
       </c>
@@ -25142,7 +25142,7 @@
       <c r="H284" s="100"/>
       <c r="I284" s="100"/>
     </row>
-    <row r="285" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A285" s="121" t="s">
         <v>24</v>
       </c>
@@ -25169,7 +25169,7 @@
       </c>
       <c r="I285" s="120"/>
     </row>
-    <row r="286" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="125"/>
       <c r="B286" s="35" t="s">
         <v>73</v>
@@ -26097,7 +26097,7 @@
       </c>
       <c r="I321" s="118"/>
     </row>
-    <row r="323" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="99" t="s">
         <v>241</v>
       </c>
@@ -26110,7 +26110,7 @@
       <c r="H323" s="100"/>
       <c r="I323" s="100"/>
     </row>
-    <row r="324" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A324" s="121" t="s">
         <v>71</v>
       </c>
@@ -26137,7 +26137,7 @@
       </c>
       <c r="I324" s="120"/>
     </row>
-    <row r="325" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="36"/>
       <c r="C325" s="43" t="s">
@@ -26260,24 +26260,24 @@
       <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.90625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="44.88671875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="35" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="35" customWidth="1"/>
     <col min="6" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="7" max="7" width="13.6640625" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="99" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="125" t="s">
         <v>25</v>
       </c>
@@ -26318,7 +26318,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40"/>
       <c r="B4" s="117" t="s">
         <v>245</v>
@@ -26339,7 +26339,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="104" t="s">
         <v>246</v>
       </c>
@@ -26432,12 +26432,12 @@
       <c r="F10" s="117"/>
       <c r="G10" s="117"/>
     </row>
-    <row r="11" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="99" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="104"/>
       <c r="B12" s="113" t="s">
         <v>190</v>
@@ -26458,16 +26458,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="104"/>
       <c r="B13" s="113"/>
     </row>
-    <row r="14" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="99" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="125" t="s">
         <v>233</v>
       </c>
@@ -26490,7 +26490,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="117" t="s">
         <v>250</v>
@@ -26511,7 +26511,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="125" t="s">
         <v>70</v>
       </c>
@@ -26535,12 +26535,12 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="99" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="56" t="s">
         <v>49</v>
       </c>
@@ -26571,12 +26571,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="140" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="140" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="99" t="s">
         <v>242</v>
       </c>
@@ -26587,7 +26587,7 @@
       <c r="F24" s="100"/>
       <c r="G24" s="100"/>
     </row>
-    <row r="25" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="125" t="s">
         <v>25</v>
       </c>
@@ -26632,7 +26632,7 @@
         <v>157.22999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="117" t="s">
         <v>278</v>
@@ -26658,7 +26658,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="104" t="s">
         <v>319</v>
       </c>
@@ -26771,7 +26771,7 @@
       <c r="F33" s="117"/>
       <c r="G33" s="117"/>
     </row>
-    <row r="34" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="99" t="s">
         <v>320</v>
       </c>
@@ -26782,7 +26782,7 @@
       <c r="F34" s="100"/>
       <c r="G34" s="100"/>
     </row>
-    <row r="35" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="104"/>
       <c r="B35" s="113" t="s">
         <v>282</v>
@@ -26805,11 +26805,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="104"/>
       <c r="B36" s="113"/>
     </row>
-    <row r="37" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="99" t="s">
         <v>248</v>
       </c>
@@ -26820,7 +26820,7 @@
       <c r="F37" s="100"/>
       <c r="G37" s="100"/>
     </row>
-    <row r="38" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="125" t="s">
         <v>233</v>
       </c>
@@ -26848,7 +26848,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="117" t="s">
         <v>284</v>
@@ -26874,7 +26874,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="125" t="s">
         <v>70</v>
       </c>
@@ -26902,7 +26902,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="99" t="s">
         <v>321</v>
       </c>
@@ -26913,7 +26913,7 @@
       <c r="F42" s="100"/>
       <c r="G42" s="100"/>
     </row>
-    <row r="43" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="104"/>
       <c r="B43" s="104"/>
       <c r="C43" s="56" t="s">
@@ -26951,12 +26951,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="140" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="140" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="99" t="s">
         <v>242</v>
       </c>
@@ -26967,7 +26967,7 @@
       <c r="F47" s="100"/>
       <c r="G47" s="100"/>
     </row>
-    <row r="48" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="125" t="s">
         <v>25</v>
       </c>
@@ -27012,7 +27012,7 @@
         <v>183.435</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="117" t="s">
         <v>288</v>
@@ -27038,7 +27038,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="104" t="s">
         <v>324</v>
       </c>
@@ -27151,7 +27151,7 @@
       <c r="F56" s="117"/>
       <c r="G56" s="117"/>
     </row>
-    <row r="57" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="99" t="s">
         <v>322</v>
       </c>
@@ -27162,7 +27162,7 @@
       <c r="F57" s="100"/>
       <c r="G57" s="100"/>
     </row>
-    <row r="58" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="104"/>
       <c r="B58" s="113" t="s">
         <v>292</v>
@@ -27185,11 +27185,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="104"/>
       <c r="B59" s="113"/>
     </row>
-    <row r="60" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="99" t="s">
         <v>248</v>
       </c>
@@ -27200,7 +27200,7 @@
       <c r="F60" s="100"/>
       <c r="G60" s="100"/>
     </row>
-    <row r="61" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="125" t="s">
         <v>233</v>
       </c>
@@ -27228,7 +27228,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="117" t="s">
         <v>294</v>
@@ -27254,7 +27254,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="125" t="s">
         <v>70</v>
       </c>
@@ -27282,7 +27282,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="99" t="s">
         <v>323</v>
       </c>
@@ -27293,7 +27293,7 @@
       <c r="F65" s="100"/>
       <c r="G65" s="100"/>
     </row>
-    <row r="66" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="104"/>
       <c r="B66" s="104"/>
       <c r="C66" s="56" t="s">
@@ -27353,16 +27353,16 @@
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" style="35" customWidth="1"/>
-    <col min="2" max="6" width="16.08984375" style="35"/>
-    <col min="7" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="16.08984375" style="35"/>
+    <col min="1" max="1" width="52.21875" style="35" customWidth="1"/>
+    <col min="2" max="6" width="16.109375" style="35"/>
+    <col min="7" max="7" width="17.21875" style="35" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="119" t="s">
         <v>69</v>
       </c>
@@ -27608,12 +27608,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="140" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="119" t="s">
         <v>69</v>
       </c>
@@ -27907,12 +27907,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="140" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="119" t="s">
         <v>69</v>
       </c>
@@ -28223,19 +28223,19 @@
   </sheetPr>
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="35" customWidth="1"/>
-    <col min="16" max="16384" width="12.81640625" style="35"/>
+    <col min="16" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="103" t="s">
@@ -28278,7 +28278,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>255</v>
       </c>
@@ -28723,7 +28723,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="59" t="s">
         <v>132</v>
       </c>
@@ -28855,7 +28855,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
         <v>256</v>
       </c>
@@ -29037,12 +29037,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="140" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="140" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="40"/>
       <c r="C24" s="103" t="s">
@@ -29085,7 +29085,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="40" t="s">
         <v>271</v>
       </c>
@@ -29831,7 +29831,7 @@
         <v>0.29700000000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="40" t="s">
         <v>272</v>
       </c>
@@ -30065,12 +30065,12 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="140" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="140" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="40"/>
       <c r="C47" s="103" t="s">
@@ -30113,7 +30113,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="40" t="s">
         <v>273</v>
       </c>
@@ -30859,7 +30859,7 @@
         <v>0.34650000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="40" t="s">
         <v>274</v>
       </c>
@@ -31114,15 +31114,15 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.81640625" style="35" customWidth="1"/>
-    <col min="3" max="7" width="15.54296875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="21.33203125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" style="35" customWidth="1"/>
+    <col min="3" max="7" width="15.5546875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="40"/>
       <c r="B1" s="119"/>
       <c r="C1" s="40" t="s">
@@ -31141,12 +31141,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="59" t="s">
         <v>67</v>
       </c>
@@ -31166,7 +31166,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>258</v>
       </c>
@@ -31177,7 +31177,7 @@
       <c r="F4" s="127"/>
       <c r="G4" s="127"/>
     </row>
-    <row r="5" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="90" t="s">
         <v>178</v>
       </c>
@@ -31197,12 +31197,12 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="140" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="140" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="40"/>
       <c r="B8" s="119"/>
       <c r="C8" s="40" t="s">
@@ -31221,12 +31221,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="59" t="s">
         <v>67</v>
       </c>
@@ -31251,7 +31251,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
         <v>275</v>
       </c>
@@ -31262,7 +31262,7 @@
       <c r="F11" s="127"/>
       <c r="G11" s="127"/>
     </row>
-    <row r="12" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="90" t="s">
         <v>178</v>
       </c>
@@ -31287,12 +31287,12 @@
         <v>0.12869999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="140" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="140" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="119"/>
       <c r="C15" s="40" t="s">
@@ -31311,12 +31311,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" s="59" t="s">
         <v>67</v>
       </c>
@@ -31341,7 +31341,7 @@
         <v>0.2205</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>277</v>
       </c>
@@ -31352,7 +31352,7 @@
       <c r="F18" s="127"/>
       <c r="G18" s="127"/>
     </row>
-    <row r="19" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="90" t="s">
         <v>178</v>
       </c>
@@ -31398,20 +31398,20 @@
       <selection activeCell="A111" sqref="A111:XFD111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="52" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" style="52" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" style="52" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="52" customWidth="1"/>
     <col min="4" max="4" width="15" style="35" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="35" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="35"/>
-    <col min="8" max="8" width="17.54296875" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="12.81640625" style="35"/>
+    <col min="5" max="5" width="13.6640625" style="35" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="35" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="35"/>
+    <col min="8" max="8" width="17.5546875" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -31437,7 +31437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>28</v>
       </c>
@@ -31463,7 +31463,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="52" t="s">
         <v>262</v>
       </c>
@@ -31483,7 +31483,7 @@
         <v>0.53134328358208949</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="52" t="s">
         <v>263</v>
       </c>
@@ -31503,7 +31503,7 @@
         <v>0.38507462686567184</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>58</v>
       </c>
@@ -31529,7 +31529,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C6" s="52" t="s">
         <v>263</v>
       </c>
@@ -31549,7 +31549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
         <v>65</v>
       </c>
@@ -31572,7 +31572,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8" s="52" t="s">
         <v>263</v>
       </c>
@@ -31592,7 +31592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>131</v>
       </c>
@@ -31618,7 +31618,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" s="52" t="s">
         <v>263</v>
       </c>
@@ -31638,7 +31638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
         <v>65</v>
       </c>
@@ -31661,7 +31661,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="52" t="s">
         <v>263</v>
       </c>
@@ -31681,7 +31681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
         <v>337</v>
       </c>
@@ -31707,7 +31707,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="52" t="s">
         <v>263</v>
       </c>
@@ -31727,7 +31727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
         <v>65</v>
       </c>
@@ -31750,7 +31750,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" s="52" t="s">
         <v>263</v>
       </c>
@@ -31770,7 +31770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>61</v>
       </c>
@@ -31796,7 +31796,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C18" s="52" t="s">
         <v>263</v>
       </c>
@@ -31817,7 +31817,7 @@
       </c>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="52" t="s">
         <v>65</v>
       </c>
@@ -31841,7 +31841,7 @@
       </c>
       <c r="I19" s="36"/>
     </row>
-    <row r="20" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C20" s="52" t="s">
         <v>263</v>
       </c>
@@ -31862,7 +31862,7 @@
       </c>
       <c r="I20" s="36"/>
     </row>
-    <row r="21" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
         <v>62</v>
       </c>
@@ -31889,7 +31889,7 @@
       </c>
       <c r="I21" s="36"/>
     </row>
-    <row r="22" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C22" s="52" t="s">
         <v>262</v>
       </c>
@@ -31910,7 +31910,7 @@
       </c>
       <c r="I22" s="36"/>
     </row>
-    <row r="23" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="52" t="s">
         <v>63</v>
       </c>
@@ -31936,7 +31936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24" s="52" t="s">
         <v>262</v>
       </c>
@@ -31956,7 +31956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="52" t="s">
         <v>64</v>
       </c>
@@ -31982,7 +31982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C26" s="52" t="s">
         <v>262</v>
       </c>
@@ -32002,7 +32002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="52" t="s">
         <v>79</v>
       </c>
@@ -32028,7 +32028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C28" s="52" t="s">
         <v>262</v>
       </c>
@@ -32048,7 +32048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C29" s="52" t="s">
         <v>263</v>
       </c>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
         <v>80</v>
       </c>
@@ -32094,7 +32094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C31" s="52" t="s">
         <v>262</v>
       </c>
@@ -32114,7 +32114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C32" s="52" t="s">
         <v>263</v>
       </c>
@@ -32134,7 +32134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
         <v>81</v>
       </c>
@@ -32160,7 +32160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C34" s="52" t="s">
         <v>262</v>
       </c>
@@ -32180,7 +32180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C35" s="52" t="s">
         <v>263</v>
       </c>
@@ -32200,7 +32200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="52" t="s">
         <v>82</v>
       </c>
@@ -32226,7 +32226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C37" s="52" t="s">
         <v>262</v>
       </c>
@@ -32246,7 +32246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C38" s="52" t="s">
         <v>263</v>
       </c>
@@ -32266,7 +32266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="52" t="s">
         <v>83</v>
       </c>
@@ -32292,7 +32292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40" s="52" t="s">
         <v>262</v>
       </c>
@@ -32312,7 +32312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C41" s="52" t="s">
         <v>263</v>
       </c>
@@ -32332,7 +32332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="52" t="s">
         <v>60</v>
       </c>
@@ -32358,7 +32358,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C43" s="52" t="s">
         <v>262</v>
       </c>
@@ -32378,7 +32378,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C44" s="52" t="s">
         <v>263</v>
       </c>
@@ -32398,7 +32398,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="52" t="s">
         <v>16</v>
       </c>
@@ -32421,7 +32421,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C46" s="52" t="s">
         <v>262</v>
       </c>
@@ -32441,7 +32441,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C47" s="52" t="s">
         <v>263</v>
       </c>
@@ -32461,7 +32461,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="52" t="s">
         <v>84</v>
       </c>
@@ -32487,7 +32487,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C49" s="52" t="s">
         <v>262</v>
       </c>
@@ -32507,7 +32507,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="52" t="s">
         <v>85</v>
       </c>
@@ -32533,7 +32533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C51" s="52" t="s">
         <v>262</v>
       </c>
@@ -32553,7 +32553,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="52" t="s">
         <v>190</v>
       </c>
@@ -32579,7 +32579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C53" s="52" t="s">
         <v>262</v>
       </c>
@@ -32599,14 +32599,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="141" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" s="141" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="144" t="s">
         <v>269</v>
       </c>
       <c r="B55" s="145"/>
       <c r="C55" s="145"/>
     </row>
-    <row r="56" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="40" t="s">
         <v>69</v>
       </c>
@@ -32632,7 +32632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="52" t="s">
         <v>28</v>
       </c>
@@ -32663,7 +32663,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C58" s="52" t="s">
         <v>262</v>
       </c>
@@ -32688,7 +32688,7 @@
         <v>0.47820895522388057</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C59" s="52" t="s">
         <v>263</v>
       </c>
@@ -32713,7 +32713,7 @@
         <v>0.34656716417910466</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="52" t="s">
         <v>58</v>
       </c>
@@ -32744,7 +32744,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C61" s="52" t="s">
         <v>263</v>
       </c>
@@ -32769,7 +32769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B62" s="52" t="s">
         <v>65</v>
       </c>
@@ -32797,7 +32797,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C63" s="52" t="s">
         <v>263</v>
       </c>
@@ -32822,7 +32822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="52" t="s">
         <v>131</v>
       </c>
@@ -32853,7 +32853,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C65" s="52" t="s">
         <v>263</v>
       </c>
@@ -32878,7 +32878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B66" s="52" t="s">
         <v>65</v>
       </c>
@@ -32906,7 +32906,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C67" s="52" t="s">
         <v>263</v>
       </c>
@@ -32931,7 +32931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="52" t="s">
         <v>337</v>
       </c>
@@ -32962,7 +32962,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C69" s="52" t="s">
         <v>263</v>
       </c>
@@ -32987,7 +32987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" s="52" t="s">
         <v>65</v>
       </c>
@@ -33015,7 +33015,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C71" s="52" t="s">
         <v>263</v>
       </c>
@@ -33040,7 +33040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="52" t="s">
         <v>61</v>
       </c>
@@ -33071,7 +33071,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C73" s="52" t="s">
         <v>263</v>
       </c>
@@ -33096,7 +33096,7 @@
         <v>0.55800000000000005</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B74" s="52" t="s">
         <v>65</v>
       </c>
@@ -33124,7 +33124,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C75" s="52" t="s">
         <v>263</v>
       </c>
@@ -33149,7 +33149,7 @@
         <v>0.55800000000000005</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="52" t="s">
         <v>62</v>
       </c>
@@ -33180,7 +33180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C77" s="52" t="s">
         <v>262</v>
       </c>
@@ -33205,7 +33205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="52" t="s">
         <v>63</v>
       </c>
@@ -33236,7 +33236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C79" s="52" t="s">
         <v>262</v>
       </c>
@@ -33261,7 +33261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="52" t="s">
         <v>64</v>
       </c>
@@ -33292,7 +33292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C81" s="52" t="s">
         <v>262</v>
       </c>
@@ -33317,7 +33317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="52" t="s">
         <v>79</v>
       </c>
@@ -33348,7 +33348,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C83" s="52" t="s">
         <v>262</v>
       </c>
@@ -33373,7 +33373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C84" s="52" t="s">
         <v>263</v>
       </c>
@@ -33398,7 +33398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="52" t="s">
         <v>80</v>
       </c>
@@ -33429,7 +33429,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C86" s="52" t="s">
         <v>262</v>
       </c>
@@ -33454,7 +33454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C87" s="52" t="s">
         <v>263</v>
       </c>
@@ -33479,7 +33479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="52" t="s">
         <v>81</v>
       </c>
@@ -33510,7 +33510,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C89" s="52" t="s">
         <v>262</v>
       </c>
@@ -33535,7 +33535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C90" s="52" t="s">
         <v>263</v>
       </c>
@@ -33560,7 +33560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="52" t="s">
         <v>82</v>
       </c>
@@ -33591,7 +33591,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C92" s="52" t="s">
         <v>262</v>
       </c>
@@ -33616,7 +33616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C93" s="52" t="s">
         <v>263</v>
       </c>
@@ -33641,7 +33641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="52" t="s">
         <v>83</v>
       </c>
@@ -33672,7 +33672,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C95" s="52" t="s">
         <v>262</v>
       </c>
@@ -33697,7 +33697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C96" s="52" t="s">
         <v>263</v>
       </c>
@@ -33722,7 +33722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="52" t="s">
         <v>60</v>
       </c>
@@ -33753,7 +33753,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C98" s="52" t="s">
         <v>262</v>
       </c>
@@ -33778,7 +33778,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C99" s="52" t="s">
         <v>263</v>
       </c>
@@ -33803,7 +33803,7 @@
         <v>0.58500000000000008</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B100" s="52" t="s">
         <v>16</v>
       </c>
@@ -33831,7 +33831,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C101" s="52" t="s">
         <v>262</v>
       </c>
@@ -33856,7 +33856,7 @@
         <v>0.441</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C102" s="52" t="s">
         <v>263</v>
       </c>
@@ -33881,7 +33881,7 @@
         <v>0.46800000000000003</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="52" t="s">
         <v>84</v>
       </c>
@@ -33912,7 +33912,7 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C104" s="52" t="s">
         <v>262</v>
       </c>
@@ -33937,7 +33937,7 @@
         <v>0.83700000000000008</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="52" t="s">
         <v>85</v>
       </c>
@@ -33968,7 +33968,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C106" s="52" t="s">
         <v>262</v>
       </c>
@@ -33993,7 +33993,7 @@
         <v>0.77400000000000002</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="52" t="s">
         <v>190</v>
       </c>
@@ -34024,7 +34024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C108" s="52" t="s">
         <v>262</v>
       </c>
@@ -34049,14 +34049,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="141" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" s="141" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="144" t="s">
         <v>270</v>
       </c>
       <c r="B110" s="145"/>
       <c r="C110" s="145"/>
     </row>
-    <row r="111" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="40" t="s">
         <v>69</v>
       </c>
@@ -34082,7 +34082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="52" t="s">
         <v>28</v>
       </c>
@@ -34113,7 +34113,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C113" s="52" t="s">
         <v>262</v>
       </c>
@@ -34138,7 +34138,7 @@
         <v>0.55791044776119403</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C114" s="52" t="s">
         <v>263</v>
       </c>
@@ -34163,7 +34163,7 @@
         <v>0.40432835820895546</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="52" t="s">
         <v>58</v>
       </c>
@@ -34194,7 +34194,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C116" s="52" t="s">
         <v>263</v>
       </c>
@@ -34219,7 +34219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B117" s="52" t="s">
         <v>65</v>
       </c>
@@ -34247,7 +34247,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C118" s="52" t="s">
         <v>263</v>
       </c>
@@ -34272,7 +34272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="52" t="s">
         <v>131</v>
       </c>
@@ -34303,7 +34303,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C120" s="52" t="s">
         <v>263</v>
       </c>
@@ -34328,7 +34328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B121" s="52" t="s">
         <v>65</v>
       </c>
@@ -34356,7 +34356,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C122" s="52" t="s">
         <v>263</v>
       </c>
@@ -34381,7 +34381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="52" t="s">
         <v>337</v>
       </c>
@@ -34412,7 +34412,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C124" s="52" t="s">
         <v>263</v>
       </c>
@@ -34437,7 +34437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B125" s="52" t="s">
         <v>65</v>
       </c>
@@ -34465,7 +34465,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C126" s="52" t="s">
         <v>263</v>
       </c>
@@ -34490,7 +34490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="52" t="s">
         <v>61</v>
       </c>
@@ -34521,7 +34521,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C128" s="52" t="s">
         <v>263</v>
       </c>
@@ -34546,7 +34546,7 @@
         <v>0.65100000000000002</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B129" s="52" t="s">
         <v>65</v>
       </c>
@@ -34574,7 +34574,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C130" s="52" t="s">
         <v>263</v>
       </c>
@@ -34599,7 +34599,7 @@
         <v>0.65100000000000002</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="52" t="s">
         <v>62</v>
       </c>
@@ -34630,7 +34630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C132" s="52" t="s">
         <v>262</v>
       </c>
@@ -34655,7 +34655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="52" t="s">
         <v>63</v>
       </c>
@@ -34686,7 +34686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C134" s="52" t="s">
         <v>262</v>
       </c>
@@ -34711,7 +34711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="52" t="s">
         <v>64</v>
       </c>
@@ -34742,7 +34742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C136" s="52" t="s">
         <v>262</v>
       </c>
@@ -34767,7 +34767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="52" t="s">
         <v>79</v>
       </c>
@@ -34798,7 +34798,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C138" s="52" t="s">
         <v>262</v>
       </c>
@@ -34823,7 +34823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C139" s="52" t="s">
         <v>263</v>
       </c>
@@ -34848,7 +34848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="52" t="s">
         <v>80</v>
       </c>
@@ -34879,7 +34879,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C141" s="52" t="s">
         <v>262</v>
       </c>
@@ -34904,7 +34904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C142" s="52" t="s">
         <v>263</v>
       </c>
@@ -34929,7 +34929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="52" t="s">
         <v>81</v>
       </c>
@@ -34960,7 +34960,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C144" s="52" t="s">
         <v>262</v>
       </c>
@@ -34985,7 +34985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C145" s="52" t="s">
         <v>263</v>
       </c>
@@ -35010,7 +35010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="52" t="s">
         <v>82</v>
       </c>
@@ -35041,7 +35041,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C147" s="52" t="s">
         <v>262</v>
       </c>
@@ -35066,7 +35066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C148" s="52" t="s">
         <v>263</v>
       </c>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="52" t="s">
         <v>83</v>
       </c>
@@ -35122,7 +35122,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C150" s="52" t="s">
         <v>262</v>
       </c>
@@ -35147,7 +35147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C151" s="52" t="s">
         <v>263</v>
       </c>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="52" t="s">
         <v>60</v>
       </c>
@@ -35203,7 +35203,7 @@
         <v>0.315</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C153" s="52" t="s">
         <v>262</v>
       </c>
@@ -35228,7 +35228,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C154" s="52" t="s">
         <v>263</v>
       </c>
@@ -35253,7 +35253,7 @@
         <v>0.68250000000000011</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B155" s="52" t="s">
         <v>16</v>
       </c>
@@ -35281,7 +35281,7 @@
         <v>0.315</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C156" s="52" t="s">
         <v>262</v>
       </c>
@@ -35306,7 +35306,7 @@
         <v>0.51449999999999996</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C157" s="52" t="s">
         <v>263</v>
       </c>
@@ -35331,7 +35331,7 @@
         <v>0.54600000000000004</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="52" t="s">
         <v>84</v>
       </c>
@@ -35362,7 +35362,7 @@
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C159" s="52" t="s">
         <v>262</v>
       </c>
@@ -35387,7 +35387,7 @@
         <v>0.97650000000000015</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="52" t="s">
         <v>85</v>
       </c>
@@ -35418,7 +35418,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C161" s="52" t="s">
         <v>262</v>
       </c>
@@ -35443,7 +35443,7 @@
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="52" t="s">
         <v>190</v>
       </c>
@@ -35474,7 +35474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C163" s="52" t="s">
         <v>262</v>
       </c>
@@ -35520,16 +35520,16 @@
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" style="35" customWidth="1"/>
-    <col min="4" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="2" max="2" width="27.44140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="35" customWidth="1"/>
+    <col min="4" max="7" width="17.21875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="119" t="s">
         <v>69</v>
       </c>
@@ -35551,7 +35551,7 @@
       </c>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>86</v>
       </c>
@@ -35575,7 +35575,7 @@
       </c>
       <c r="H2" s="90"/>
     </row>
-    <row r="3" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="35" t="s">
         <v>262</v>
       </c>
@@ -35593,7 +35593,7 @@
       </c>
       <c r="H3" s="128"/>
     </row>
-    <row r="4" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>87</v>
       </c>
@@ -35617,7 +35617,7 @@
       </c>
       <c r="H4" s="128"/>
     </row>
-    <row r="5" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
         <v>262</v>
@@ -35636,7 +35636,7 @@
       </c>
       <c r="H5" s="90"/>
     </row>
-    <row r="6" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>88</v>
       </c>
@@ -35660,7 +35660,7 @@
       </c>
       <c r="H6" s="90"/>
     </row>
-    <row r="7" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
         <v>262</v>
@@ -35679,12 +35679,12 @@
       </c>
       <c r="H7" s="128"/>
     </row>
-    <row r="9" spans="1:8" s="140" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="140" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="119" t="s">
         <v>69</v>
       </c>
@@ -35705,7 +35705,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="43" t="s">
         <v>86</v>
       </c>
@@ -35732,7 +35732,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="35" t="s">
         <v>262</v>
       </c>
@@ -35753,7 +35753,7 @@
         <v>0.18000000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
         <v>87</v>
       </c>
@@ -35780,7 +35780,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="C14" s="35" t="s">
         <v>262</v>
@@ -35802,7 +35802,7 @@
         <v>0.53100000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
         <v>88</v>
       </c>
@@ -35829,7 +35829,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="36"/>
       <c r="C16" s="35" t="s">
         <v>262</v>
@@ -35851,12 +35851,12 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="140" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="140" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="119" t="s">
         <v>69</v>
       </c>
@@ -35877,7 +35877,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
         <v>86</v>
       </c>
@@ -35904,7 +35904,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C21" s="35" t="s">
         <v>262</v>
       </c>
@@ -35925,7 +35925,7 @@
         <v>0.21000000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
         <v>87</v>
       </c>
@@ -35952,7 +35952,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="36"/>
       <c r="C23" s="35" t="s">
         <v>262</v>
@@ -35974,7 +35974,7 @@
         <v>0.61949999999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
         <v>88</v>
       </c>
@@ -36001,7 +36001,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
       <c r="C25" s="35" t="s">
         <v>262</v>
@@ -36043,14 +36043,14 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="2" width="31.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2017) attributable to cause</v>
@@ -36061,7 +36061,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>204</v>
       </c>
@@ -36160,7 +36160,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
@@ -36366,7 +36366,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -36482,13 +36482,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2017)</v>
@@ -36909,13 +36909,13 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.90625" customWidth="1"/>
-    <col min="2" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+    <col min="2" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2017)</v>
@@ -37045,13 +37045,13 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>133</v>
       </c>
@@ -37086,7 +37086,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>134</v>
       </c>
@@ -37103,10 +37103,10 @@
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
     </row>
-    <row r="3" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>135</v>
       </c>
@@ -37123,10 +37123,10 @@
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -37143,7 +37143,7 @@
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
@@ -37157,7 +37157,7 @@
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>139</v>
       </c>
@@ -37171,7 +37171,7 @@
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>137</v>
       </c>
@@ -37188,7 +37188,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="34" t="s">
         <v>141</v>
       </c>
@@ -37202,7 +37202,7 @@
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
     </row>
-    <row r="13" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>74</v>
       </c>
@@ -37219,7 +37219,7 @@
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
     </row>
-    <row r="14" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>165</v>
       </c>
@@ -37248,13 +37248,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.36328125" customWidth="1"/>
+    <col min="1" max="1" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>326</v>
       </c>
@@ -37262,7 +37262,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>330</v>
       </c>
@@ -37270,7 +37270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>331</v>
       </c>
@@ -37278,7 +37278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>325</v>
       </c>
@@ -37286,7 +37286,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="146" t="s">
         <v>329</v>
       </c>
@@ -37294,7 +37294,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="146" t="s">
         <v>332</v>
       </c>
@@ -37302,7 +37302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="146" t="s">
         <v>333</v>
       </c>
@@ -37326,15 +37326,15 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="19.109375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
         <v>173</v>
       </c>
@@ -37351,7 +37351,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
         <v>168</v>
       </c>
@@ -37365,7 +37365,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
         <v>1</v>
@@ -37379,7 +37379,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
         <v>2</v>
@@ -37393,7 +37393,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
         <v>3</v>
@@ -37407,7 +37407,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
         <v>4</v>
@@ -37421,7 +37421,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
         <v>167</v>
@@ -37430,7 +37430,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="80"/>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
         <v>193</v>
       </c>
@@ -37446,7 +37446,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
         <v>1</v>
@@ -37458,7 +37458,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
         <v>2</v>
@@ -37470,7 +37470,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
         <v>3</v>
@@ -37482,7 +37482,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
         <v>4</v>
@@ -37494,7 +37494,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
         <v>167</v>
@@ -37505,7 +37505,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
         <v>194</v>
       </c>
@@ -37521,7 +37521,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
         <v>1</v>
@@ -37535,7 +37535,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
         <v>2</v>
@@ -37549,7 +37549,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
         <v>3</v>
@@ -37563,7 +37563,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
         <v>4</v>
@@ -37577,7 +37577,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
         <v>167</v>
@@ -37604,15 +37604,15 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
         <v>159</v>
       </c>
@@ -37626,7 +37626,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="61" t="s">
         <v>69</v>
       </c>
@@ -37638,7 +37638,7 @@
       </c>
       <c r="D2" s="80"/>
     </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="61" t="s">
         <v>180</v>
       </c>

--- a/inputs/en/demo_testing_input.xlsx
+++ b/inputs/en/demo_testing_input.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\Nutrition\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\modeling\Nutrition\inputs\en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5909CC-747C-431C-A9AF-A088ECB3BFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5FF1BB-CEFA-4510-BEF8-0C912D6CED0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="ZwA7yXuNmYmTRbqFvJWuzQgKIaESW+eAe3bNhRDR3XsdF1dbze5kIMQkK6W5tvCmyk91oFSH/2+Jzpk8YAI+lA==" workbookSaltValue="Z4P1Rp2vFiU5VoQ68v08ow==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="961" firstSheet="10" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="961" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -1588,7 +1593,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1758,6 +1763,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2620,7 +2631,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2876,15 +2887,18 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="9" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="9" fontId="9" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="167" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="728">
@@ -5064,14 +5078,14 @@
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="38.6328125" style="11" customWidth="1"/>
-    <col min="3" max="16384" width="14.453125" style="8"/>
+    <col min="1" max="1" width="27.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="14.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -5082,14 +5096,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>191</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
     </row>
-    <row r="3" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
         <v>193</v>
@@ -5098,7 +5112,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
         <v>192</v>
@@ -5107,7 +5121,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
@@ -5176,7 +5190,7 @@
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>30</v>
       </c>
@@ -5219,7 +5233,7 @@
       <c r="B20" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="113">
+      <c r="C20" s="112">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
         <v>0</v>
       </c>
@@ -5307,17 +5321,17 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="C33" s="114">
+      <c r="C33" s="113">
         <f>SUM(C29:C32)</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>135</v>
       </c>
@@ -5421,7 +5435,7 @@
       <c r="B48" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="113">
+      <c r="C48" s="112">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
         <v>0.495</v>
       </c>
@@ -5515,7 +5529,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -5536,15 +5550,15 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>164</v>
       </c>
@@ -5558,7 +5572,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>69</v>
       </c>
@@ -5570,7 +5584,7 @@
       </c>
       <c r="D2" s="63"/>
     </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>185</v>
       </c>
@@ -5599,15 +5613,15 @@
       <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.90625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="28"/>
+    <col min="2" max="2" width="47.88671875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" style="28" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>69</v>
       </c>
@@ -5850,13 +5864,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.08984375" style="28" customWidth="1"/>
-    <col min="2" max="16384" width="11.453125" style="28"/>
+    <col min="1" max="1" width="30.109375" style="28" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>69</v>
       </c>
@@ -5948,7 +5962,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -6062,19 +6076,19 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.90625" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.88671875" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -6121,7 +6135,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -6636,7 +6650,7 @@
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -6687,7 +6701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
         <v>86</v>
@@ -6732,7 +6746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
         <v>187</v>
@@ -6781,7 +6795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>207</v>
@@ -7017,7 +7031,7 @@
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>37</v>
       </c>
@@ -7267,7 +7281,7 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
@@ -7775,7 +7789,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
@@ -7813,16 +7827,16 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.6328125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="28" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" style="28"/>
-    <col min="5" max="5" width="17.453125" style="28" customWidth="1"/>
-    <col min="6" max="16384" width="11.453125" style="28"/>
+    <col min="1" max="1" width="33.6640625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="28" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" style="28"/>
+    <col min="5" max="5" width="17.44140625" style="28" customWidth="1"/>
+    <col min="6" max="16384" width="11.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>163</v>
       </c>
@@ -7839,7 +7853,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>158</v>
       </c>
@@ -7857,7 +7871,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>157</v>
       </c>
@@ -7875,7 +7889,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>156</v>
       </c>
@@ -7893,7 +7907,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>155</v>
       </c>
@@ -7911,7 +7925,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>154</v>
       </c>
@@ -7929,7 +7943,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>153</v>
       </c>
@@ -7947,7 +7961,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>152</v>
       </c>
@@ -7965,7 +7979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>151</v>
       </c>
@@ -7983,7 +7997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>150</v>
       </c>
@@ -8019,20 +8033,20 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" style="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" style="43" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="43" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.08984375" style="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.36328125" style="43" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.90625" style="43" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.08984375" style="43"/>
+    <col min="6" max="7" width="13.109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.33203125" style="43" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.88671875" style="43" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.109375" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
         <v>33</v>
       </c>
@@ -8079,7 +8093,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>31</v>
       </c>
@@ -8126,7 +8140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="40" t="s">
         <v>149</v>
       </c>
@@ -8170,7 +8184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="40" t="s">
         <v>173</v>
       </c>
@@ -8214,7 +8228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="40" t="s">
         <v>198</v>
       </c>
@@ -8258,7 +8272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="40" t="s">
         <v>199</v>
       </c>
@@ -8302,7 +8316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="40" t="s">
         <v>195</v>
       </c>
@@ -8346,7 +8360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="40" t="s">
         <v>136</v>
       </c>
@@ -8390,7 +8404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="40" t="s">
         <v>137</v>
       </c>
@@ -8434,7 +8448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="40" t="s">
         <v>84</v>
       </c>
@@ -8478,7 +8492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="40" t="s">
         <v>58</v>
       </c>
@@ -8522,7 +8536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
         <v>67</v>
       </c>
@@ -8566,7 +8580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="40" t="s">
         <v>28</v>
       </c>
@@ -8610,7 +8624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="40" t="s">
         <v>85</v>
       </c>
@@ -8654,7 +8668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="40" t="s">
         <v>60</v>
       </c>
@@ -8698,7 +8712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="40"/>
       <c r="C16" s="97"/>
       <c r="D16" s="97"/>
@@ -8714,7 +8728,7 @@
       <c r="N16" s="97"/>
       <c r="O16" s="97"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="44" t="s">
         <v>32</v>
       </c>
@@ -8761,7 +8775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="44"/>
       <c r="B18" s="40" t="s">
         <v>86</v>
@@ -8806,7 +8820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="71" t="s">
         <v>187</v>
       </c>
@@ -8850,7 +8864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="71" t="s">
         <v>207</v>
       </c>
@@ -8894,7 +8908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="72" t="s">
         <v>57</v>
       </c>
@@ -8938,7 +8952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="40" t="s">
         <v>88</v>
       </c>
@@ -8982,7 +8996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="40" t="s">
         <v>87</v>
       </c>
@@ -9026,7 +9040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="40" t="s">
         <v>59</v>
       </c>
@@ -9070,7 +9084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="40"/>
       <c r="C25" s="97"/>
       <c r="D25" s="97"/>
@@ -9086,7 +9100,7 @@
       <c r="N25" s="97"/>
       <c r="O25" s="97"/>
     </row>
-    <row r="26" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="44" t="s">
         <v>37</v>
       </c>
@@ -9134,7 +9148,7 @@
       </c>
       <c r="P26" s="73"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="46" t="s">
         <v>188</v>
       </c>
@@ -9178,7 +9192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="44"/>
       <c r="B28" s="46" t="s">
         <v>206</v>
@@ -9223,7 +9237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="46" t="s">
         <v>189</v>
       </c>
@@ -9267,7 +9281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="46" t="s">
         <v>190</v>
       </c>
@@ -9311,7 +9325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="40"/>
       <c r="C31" s="98"/>
       <c r="D31" s="98"/>
@@ -9327,7 +9341,7 @@
       <c r="N31" s="97"/>
       <c r="O31" s="97"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="44" t="s">
         <v>35</v>
       </c>
@@ -9374,7 +9388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="40" t="s">
         <v>64</v>
       </c>
@@ -9418,7 +9432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="40" t="s">
         <v>62</v>
       </c>
@@ -9462,7 +9476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="40" t="s">
         <v>47</v>
       </c>
@@ -9506,7 +9520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="40" t="s">
         <v>34</v>
       </c>
@@ -9550,7 +9564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="40" t="s">
         <v>83</v>
       </c>
@@ -9594,7 +9608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="40" t="s">
         <v>82</v>
       </c>
@@ -9638,7 +9652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="40" t="s">
         <v>81</v>
       </c>
@@ -9682,7 +9696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="40" t="s">
         <v>79</v>
       </c>
@@ -9726,7 +9740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="40" t="s">
         <v>80</v>
       </c>
@@ -9787,22 +9801,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.90625" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="28"/>
+    <col min="1" max="1" width="58.88671875" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>69</v>
       </c>
@@ -10533,22 +10547,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.90625" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="28"/>
+    <col min="1" max="1" width="16.88671875" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>216</v>
       </c>
@@ -10907,14 +10921,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="8" customWidth="1"/>
-    <col min="2" max="9" width="16.90625" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="14.453125" style="8"/>
+    <col min="1" max="1" width="8.44140625" style="8" customWidth="1"/>
+    <col min="2" max="9" width="16.88671875" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="14.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -12002,15 +12016,15 @@
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.08984375" style="28" customWidth="1"/>
+    <col min="1" max="1" width="48.109375" style="28" customWidth="1"/>
     <col min="2" max="2" width="15" style="28" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="12.81640625" style="28"/>
+    <col min="3" max="3" width="14.6640625" style="28" customWidth="1"/>
+    <col min="4" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>217</v>
       </c>
@@ -12036,11 +12050,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="115" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="28" t="s">
@@ -12063,7 +12077,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="112"/>
+      <c r="B3" s="115"/>
       <c r="C3" s="28" t="s">
         <v>175</v>
       </c>
@@ -12085,7 +12099,7 @@
       <c r="J3" s="74"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="112"/>
+      <c r="B4" s="115"/>
       <c r="C4" s="28" t="s">
         <v>174</v>
       </c>
@@ -12107,7 +12121,7 @@
       <c r="J4" s="74"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="115" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="28" t="s">
@@ -12131,7 +12145,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="112"/>
+      <c r="B6" s="115"/>
       <c r="C6" s="28" t="s">
         <v>175</v>
       </c>
@@ -12152,7 +12166,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="112"/>
+      <c r="B7" s="115"/>
       <c r="C7" s="28" t="s">
         <v>174</v>
       </c>
@@ -12173,7 +12187,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="115" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="28" t="s">
@@ -12196,7 +12210,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="112"/>
+      <c r="B9" s="115"/>
       <c r="C9" s="28" t="s">
         <v>175</v>
       </c>
@@ -12217,7 +12231,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="112"/>
+      <c r="B10" s="115"/>
       <c r="C10" s="28" t="s">
         <v>174</v>
       </c>
@@ -12238,7 +12252,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="112" t="s">
+      <c r="B11" s="115" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -12261,7 +12275,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="112"/>
+      <c r="B12" s="115"/>
       <c r="C12" s="28" t="s">
         <v>175</v>
       </c>
@@ -12282,7 +12296,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="112"/>
+      <c r="B13" s="115"/>
       <c r="C13" s="28" t="s">
         <v>174</v>
       </c>
@@ -12303,7 +12317,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="112" t="s">
+      <c r="B14" s="115" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="28" t="s">
@@ -12326,7 +12340,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="112"/>
+      <c r="B15" s="115"/>
       <c r="C15" s="28" t="s">
         <v>175</v>
       </c>
@@ -12347,7 +12361,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="112"/>
+      <c r="B16" s="115"/>
       <c r="C16" s="28" t="s">
         <v>174</v>
       </c>
@@ -12367,7 +12381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="75" t="s">
         <v>172</v>
       </c>
@@ -12397,11 +12411,11 @@
       <c r="G18" s="99"/>
       <c r="H18" s="99"/>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="B19" s="112" t="s">
+      <c r="B19" s="115" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="28" t="s">
@@ -12424,7 +12438,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="112"/>
+      <c r="B20" s="115"/>
       <c r="C20" s="28" t="s">
         <v>175</v>
       </c>
@@ -12445,7 +12459,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="112"/>
+      <c r="B21" s="115"/>
       <c r="C21" s="28" t="s">
         <v>174</v>
       </c>
@@ -12466,7 +12480,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="112" t="s">
+      <c r="B22" s="115" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="28" t="s">
@@ -12489,7 +12503,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="112"/>
+      <c r="B23" s="115"/>
       <c r="C23" s="28" t="s">
         <v>175</v>
       </c>
@@ -12510,7 +12524,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="112"/>
+      <c r="B24" s="115"/>
       <c r="C24" s="28" t="s">
         <v>174</v>
       </c>
@@ -12531,7 +12545,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="112" t="s">
+      <c r="B25" s="115" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="28" t="s">
@@ -12554,7 +12568,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="112"/>
+      <c r="B26" s="115"/>
       <c r="C26" s="28" t="s">
         <v>175</v>
       </c>
@@ -12575,7 +12589,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="112"/>
+      <c r="B27" s="115"/>
       <c r="C27" s="28" t="s">
         <v>174</v>
       </c>
@@ -12596,7 +12610,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="112" t="s">
+      <c r="B28" s="115" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="28" t="s">
@@ -12619,7 +12633,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="112"/>
+      <c r="B29" s="115"/>
       <c r="C29" s="28" t="s">
         <v>175</v>
       </c>
@@ -12640,7 +12654,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="112"/>
+      <c r="B30" s="115"/>
       <c r="C30" s="28" t="s">
         <v>174</v>
       </c>
@@ -12661,7 +12675,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="112" t="s">
+      <c r="B31" s="115" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="28" t="s">
@@ -12684,7 +12698,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="112"/>
+      <c r="B32" s="115"/>
       <c r="C32" s="28" t="s">
         <v>175</v>
       </c>
@@ -12705,7 +12719,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="112"/>
+      <c r="B33" s="115"/>
       <c r="C33" s="28" t="s">
         <v>174</v>
       </c>
@@ -12725,7 +12739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="75" t="s">
         <v>172</v>
       </c>
@@ -12755,11 +12769,11 @@
       <c r="G35" s="99"/>
       <c r="H35" s="99"/>
     </row>
-    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="76" t="s">
         <v>220</v>
       </c>
-      <c r="B36" s="112" t="s">
+      <c r="B36" s="115" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="28" t="s">
@@ -12782,7 +12796,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="112"/>
+      <c r="B37" s="115"/>
       <c r="C37" s="28" t="s">
         <v>175</v>
       </c>
@@ -12803,7 +12817,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="112"/>
+      <c r="B38" s="115"/>
       <c r="C38" s="28" t="s">
         <v>174</v>
       </c>
@@ -12824,7 +12838,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="112" t="s">
+      <c r="B39" s="115" t="s">
         <v>1</v>
       </c>
       <c r="C39" s="28" t="s">
@@ -12847,7 +12861,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="112"/>
+      <c r="B40" s="115"/>
       <c r="C40" s="28" t="s">
         <v>175</v>
       </c>
@@ -12868,7 +12882,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="112"/>
+      <c r="B41" s="115"/>
       <c r="C41" s="28" t="s">
         <v>174</v>
       </c>
@@ -12889,7 +12903,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="112" t="s">
+      <c r="B42" s="115" t="s">
         <v>2</v>
       </c>
       <c r="C42" s="28" t="s">
@@ -12912,7 +12926,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="112"/>
+      <c r="B43" s="115"/>
       <c r="C43" s="28" t="s">
         <v>175</v>
       </c>
@@ -12933,7 +12947,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="112"/>
+      <c r="B44" s="115"/>
       <c r="C44" s="28" t="s">
         <v>174</v>
       </c>
@@ -12954,7 +12968,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="112" t="s">
+      <c r="B45" s="115" t="s">
         <v>3</v>
       </c>
       <c r="C45" s="28" t="s">
@@ -12977,7 +12991,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="112"/>
+      <c r="B46" s="115"/>
       <c r="C46" s="28" t="s">
         <v>175</v>
       </c>
@@ -12998,7 +13012,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="112"/>
+      <c r="B47" s="115"/>
       <c r="C47" s="28" t="s">
         <v>174</v>
       </c>
@@ -13019,7 +13033,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="112" t="s">
+      <c r="B48" s="115" t="s">
         <v>4</v>
       </c>
       <c r="C48" s="28" t="s">
@@ -13042,7 +13056,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="112"/>
+      <c r="B49" s="115"/>
       <c r="C49" s="28" t="s">
         <v>175</v>
       </c>
@@ -13063,7 +13077,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="112"/>
+      <c r="B50" s="115"/>
       <c r="C50" s="28" t="s">
         <v>174</v>
       </c>
@@ -13083,7 +13097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B51" s="75" t="s">
         <v>172</v>
       </c>
@@ -13106,7 +13120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="105" t="s">
         <v>272</v>
       </c>
@@ -13118,7 +13132,7 @@
       <c r="G53" s="105"/>
       <c r="H53" s="105"/>
     </row>
-    <row r="54" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="30" t="s">
         <v>217</v>
       </c>
@@ -13144,11 +13158,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
         <v>317</v>
       </c>
-      <c r="B55" s="112" t="s">
+      <c r="B55" s="115" t="s">
         <v>32</v>
       </c>
       <c r="C55" s="28" t="s">
@@ -13176,7 +13190,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="112"/>
+      <c r="B56" s="115"/>
       <c r="C56" s="28" t="s">
         <v>175</v>
       </c>
@@ -13202,7 +13216,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="112"/>
+      <c r="B57" s="115"/>
       <c r="C57" s="28" t="s">
         <v>174</v>
       </c>
@@ -13228,7 +13242,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="112" t="s">
+      <c r="B58" s="115" t="s">
         <v>1</v>
       </c>
       <c r="C58" s="28" t="s">
@@ -13256,7 +13270,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="112"/>
+      <c r="B59" s="115"/>
       <c r="C59" s="28" t="s">
         <v>175</v>
       </c>
@@ -13282,7 +13296,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="112"/>
+      <c r="B60" s="115"/>
       <c r="C60" s="28" t="s">
         <v>174</v>
       </c>
@@ -13308,7 +13322,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="112" t="s">
+      <c r="B61" s="115" t="s">
         <v>2</v>
       </c>
       <c r="C61" s="28" t="s">
@@ -13336,7 +13350,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="112"/>
+      <c r="B62" s="115"/>
       <c r="C62" s="28" t="s">
         <v>175</v>
       </c>
@@ -13362,7 +13376,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="112"/>
+      <c r="B63" s="115"/>
       <c r="C63" s="28" t="s">
         <v>174</v>
       </c>
@@ -13388,7 +13402,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="112" t="s">
+      <c r="B64" s="115" t="s">
         <v>3</v>
       </c>
       <c r="C64" s="28" t="s">
@@ -13416,7 +13430,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="112"/>
+      <c r="B65" s="115"/>
       <c r="C65" s="28" t="s">
         <v>175</v>
       </c>
@@ -13442,7 +13456,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="112"/>
+      <c r="B66" s="115"/>
       <c r="C66" s="28" t="s">
         <v>174</v>
       </c>
@@ -13468,7 +13482,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="112" t="s">
+      <c r="B67" s="115" t="s">
         <v>4</v>
       </c>
       <c r="C67" s="28" t="s">
@@ -13496,7 +13510,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="112"/>
+      <c r="B68" s="115"/>
       <c r="C68" s="28" t="s">
         <v>175</v>
       </c>
@@ -13522,7 +13536,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="112"/>
+      <c r="B69" s="115"/>
       <c r="C69" s="28" t="s">
         <v>174</v>
       </c>
@@ -13547,7 +13561,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" s="75" t="s">
         <v>172</v>
       </c>
@@ -13582,11 +13596,11 @@
       <c r="G71" s="99"/>
       <c r="H71" s="99"/>
     </row>
-    <row r="72" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="30" t="s">
         <v>318</v>
       </c>
-      <c r="B72" s="112" t="s">
+      <c r="B72" s="115" t="s">
         <v>32</v>
       </c>
       <c r="C72" s="28" t="s">
@@ -13614,7 +13628,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="112"/>
+      <c r="B73" s="115"/>
       <c r="C73" s="28" t="s">
         <v>175</v>
       </c>
@@ -13640,7 +13654,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="112"/>
+      <c r="B74" s="115"/>
       <c r="C74" s="28" t="s">
         <v>174</v>
       </c>
@@ -13666,7 +13680,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="112" t="s">
+      <c r="B75" s="115" t="s">
         <v>1</v>
       </c>
       <c r="C75" s="28" t="s">
@@ -13694,7 +13708,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="112"/>
+      <c r="B76" s="115"/>
       <c r="C76" s="28" t="s">
         <v>175</v>
       </c>
@@ -13720,7 +13734,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="112"/>
+      <c r="B77" s="115"/>
       <c r="C77" s="28" t="s">
         <v>174</v>
       </c>
@@ -13746,7 +13760,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="112" t="s">
+      <c r="B78" s="115" t="s">
         <v>2</v>
       </c>
       <c r="C78" s="28" t="s">
@@ -13774,7 +13788,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="112"/>
+      <c r="B79" s="115"/>
       <c r="C79" s="28" t="s">
         <v>175</v>
       </c>
@@ -13800,7 +13814,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="112"/>
+      <c r="B80" s="115"/>
       <c r="C80" s="28" t="s">
         <v>174</v>
       </c>
@@ -13826,7 +13840,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="112" t="s">
+      <c r="B81" s="115" t="s">
         <v>3</v>
       </c>
       <c r="C81" s="28" t="s">
@@ -13854,7 +13868,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="112"/>
+      <c r="B82" s="115"/>
       <c r="C82" s="28" t="s">
         <v>175</v>
       </c>
@@ -13880,7 +13894,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="112"/>
+      <c r="B83" s="115"/>
       <c r="C83" s="28" t="s">
         <v>174</v>
       </c>
@@ -13906,7 +13920,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="112" t="s">
+      <c r="B84" s="115" t="s">
         <v>4</v>
       </c>
       <c r="C84" s="28" t="s">
@@ -13934,7 +13948,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="112"/>
+      <c r="B85" s="115"/>
       <c r="C85" s="28" t="s">
         <v>175</v>
       </c>
@@ -13960,7 +13974,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="112"/>
+      <c r="B86" s="115"/>
       <c r="C86" s="28" t="s">
         <v>174</v>
       </c>
@@ -13985,7 +13999,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B87" s="75" t="s">
         <v>172</v>
       </c>
@@ -14020,11 +14034,11 @@
       <c r="G88" s="99"/>
       <c r="H88" s="99"/>
     </row>
-    <row r="89" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="76" t="s">
         <v>319</v>
       </c>
-      <c r="B89" s="112" t="s">
+      <c r="B89" s="115" t="s">
         <v>32</v>
       </c>
       <c r="C89" s="28" t="s">
@@ -14052,7 +14066,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="112"/>
+      <c r="B90" s="115"/>
       <c r="C90" s="28" t="s">
         <v>175</v>
       </c>
@@ -14078,7 +14092,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="112"/>
+      <c r="B91" s="115"/>
       <c r="C91" s="28" t="s">
         <v>174</v>
       </c>
@@ -14104,7 +14118,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="112" t="s">
+      <c r="B92" s="115" t="s">
         <v>1</v>
       </c>
       <c r="C92" s="28" t="s">
@@ -14132,7 +14146,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="112"/>
+      <c r="B93" s="115"/>
       <c r="C93" s="28" t="s">
         <v>175</v>
       </c>
@@ -14158,7 +14172,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="112"/>
+      <c r="B94" s="115"/>
       <c r="C94" s="28" t="s">
         <v>174</v>
       </c>
@@ -14184,7 +14198,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="112" t="s">
+      <c r="B95" s="115" t="s">
         <v>2</v>
       </c>
       <c r="C95" s="28" t="s">
@@ -14212,7 +14226,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="112"/>
+      <c r="B96" s="115"/>
       <c r="C96" s="28" t="s">
         <v>175</v>
       </c>
@@ -14238,7 +14252,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="112"/>
+      <c r="B97" s="115"/>
       <c r="C97" s="28" t="s">
         <v>174</v>
       </c>
@@ -14264,7 +14278,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="112" t="s">
+      <c r="B98" s="115" t="s">
         <v>3</v>
       </c>
       <c r="C98" s="28" t="s">
@@ -14292,7 +14306,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="112"/>
+      <c r="B99" s="115"/>
       <c r="C99" s="28" t="s">
         <v>175</v>
       </c>
@@ -14318,7 +14332,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="112"/>
+      <c r="B100" s="115"/>
       <c r="C100" s="28" t="s">
         <v>174</v>
       </c>
@@ -14344,7 +14358,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="112" t="s">
+      <c r="B101" s="115" t="s">
         <v>4</v>
       </c>
       <c r="C101" s="28" t="s">
@@ -14372,7 +14386,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="112"/>
+      <c r="B102" s="115"/>
       <c r="C102" s="28" t="s">
         <v>175</v>
       </c>
@@ -14398,7 +14412,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="112"/>
+      <c r="B103" s="115"/>
       <c r="C103" s="28" t="s">
         <v>174</v>
       </c>
@@ -14423,7 +14437,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B104" s="75" t="s">
         <v>172</v>
       </c>
@@ -14451,7 +14465,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="105" t="s">
         <v>273</v>
       </c>
@@ -14463,7 +14477,7 @@
       <c r="G106" s="105"/>
       <c r="H106" s="105"/>
     </row>
-    <row r="107" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="30" t="s">
         <v>217</v>
       </c>
@@ -14489,11 +14503,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="30" t="s">
         <v>320</v>
       </c>
-      <c r="B108" s="112" t="s">
+      <c r="B108" s="115" t="s">
         <v>32</v>
       </c>
       <c r="C108" s="28" t="s">
@@ -14521,7 +14535,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B109" s="112"/>
+      <c r="B109" s="115"/>
       <c r="C109" s="28" t="s">
         <v>175</v>
       </c>
@@ -14547,7 +14561,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="112"/>
+      <c r="B110" s="115"/>
       <c r="C110" s="28" t="s">
         <v>174</v>
       </c>
@@ -14573,7 +14587,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="112" t="s">
+      <c r="B111" s="115" t="s">
         <v>1</v>
       </c>
       <c r="C111" s="28" t="s">
@@ -14601,7 +14615,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="112"/>
+      <c r="B112" s="115"/>
       <c r="C112" s="28" t="s">
         <v>175</v>
       </c>
@@ -14627,7 +14641,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="112"/>
+      <c r="B113" s="115"/>
       <c r="C113" s="28" t="s">
         <v>174</v>
       </c>
@@ -14653,7 +14667,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B114" s="112" t="s">
+      <c r="B114" s="115" t="s">
         <v>2</v>
       </c>
       <c r="C114" s="28" t="s">
@@ -14681,7 +14695,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B115" s="112"/>
+      <c r="B115" s="115"/>
       <c r="C115" s="28" t="s">
         <v>175</v>
       </c>
@@ -14707,7 +14721,7 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B116" s="112"/>
+      <c r="B116" s="115"/>
       <c r="C116" s="28" t="s">
         <v>174</v>
       </c>
@@ -14733,7 +14747,7 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B117" s="112" t="s">
+      <c r="B117" s="115" t="s">
         <v>3</v>
       </c>
       <c r="C117" s="28" t="s">
@@ -14761,7 +14775,7 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B118" s="112"/>
+      <c r="B118" s="115"/>
       <c r="C118" s="28" t="s">
         <v>175</v>
       </c>
@@ -14787,7 +14801,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B119" s="112"/>
+      <c r="B119" s="115"/>
       <c r="C119" s="28" t="s">
         <v>174</v>
       </c>
@@ -14813,7 +14827,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B120" s="112" t="s">
+      <c r="B120" s="115" t="s">
         <v>4</v>
       </c>
       <c r="C120" s="28" t="s">
@@ -14841,7 +14855,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B121" s="112"/>
+      <c r="B121" s="115"/>
       <c r="C121" s="28" t="s">
         <v>175</v>
       </c>
@@ -14867,7 +14881,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B122" s="112"/>
+      <c r="B122" s="115"/>
       <c r="C122" s="28" t="s">
         <v>174</v>
       </c>
@@ -14892,7 +14906,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B123" s="75" t="s">
         <v>172</v>
       </c>
@@ -14927,11 +14941,11 @@
       <c r="G124" s="99"/>
       <c r="H124" s="99"/>
     </row>
-    <row r="125" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="30" t="s">
         <v>321</v>
       </c>
-      <c r="B125" s="112" t="s">
+      <c r="B125" s="115" t="s">
         <v>32</v>
       </c>
       <c r="C125" s="28" t="s">
@@ -14959,7 +14973,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B126" s="112"/>
+      <c r="B126" s="115"/>
       <c r="C126" s="28" t="s">
         <v>175</v>
       </c>
@@ -14985,7 +14999,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B127" s="112"/>
+      <c r="B127" s="115"/>
       <c r="C127" s="28" t="s">
         <v>174</v>
       </c>
@@ -15011,7 +15025,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B128" s="112" t="s">
+      <c r="B128" s="115" t="s">
         <v>1</v>
       </c>
       <c r="C128" s="28" t="s">
@@ -15039,7 +15053,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B129" s="112"/>
+      <c r="B129" s="115"/>
       <c r="C129" s="28" t="s">
         <v>175</v>
       </c>
@@ -15065,7 +15079,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B130" s="112"/>
+      <c r="B130" s="115"/>
       <c r="C130" s="28" t="s">
         <v>174</v>
       </c>
@@ -15091,7 +15105,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B131" s="112" t="s">
+      <c r="B131" s="115" t="s">
         <v>2</v>
       </c>
       <c r="C131" s="28" t="s">
@@ -15119,7 +15133,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B132" s="112"/>
+      <c r="B132" s="115"/>
       <c r="C132" s="28" t="s">
         <v>175</v>
       </c>
@@ -15145,7 +15159,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B133" s="112"/>
+      <c r="B133" s="115"/>
       <c r="C133" s="28" t="s">
         <v>174</v>
       </c>
@@ -15171,7 +15185,7 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B134" s="112" t="s">
+      <c r="B134" s="115" t="s">
         <v>3</v>
       </c>
       <c r="C134" s="28" t="s">
@@ -15199,7 +15213,7 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B135" s="112"/>
+      <c r="B135" s="115"/>
       <c r="C135" s="28" t="s">
         <v>175</v>
       </c>
@@ -15225,7 +15239,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B136" s="112"/>
+      <c r="B136" s="115"/>
       <c r="C136" s="28" t="s">
         <v>174</v>
       </c>
@@ -15251,7 +15265,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B137" s="112" t="s">
+      <c r="B137" s="115" t="s">
         <v>4</v>
       </c>
       <c r="C137" s="28" t="s">
@@ -15279,7 +15293,7 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B138" s="112"/>
+      <c r="B138" s="115"/>
       <c r="C138" s="28" t="s">
         <v>175</v>
       </c>
@@ -15305,7 +15319,7 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B139" s="112"/>
+      <c r="B139" s="115"/>
       <c r="C139" s="28" t="s">
         <v>174</v>
       </c>
@@ -15330,7 +15344,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B140" s="75" t="s">
         <v>172</v>
       </c>
@@ -15365,11 +15379,11 @@
       <c r="G141" s="99"/>
       <c r="H141" s="99"/>
     </row>
-    <row r="142" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="76" t="s">
         <v>322</v>
       </c>
-      <c r="B142" s="112" t="s">
+      <c r="B142" s="115" t="s">
         <v>32</v>
       </c>
       <c r="C142" s="28" t="s">
@@ -15397,7 +15411,7 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B143" s="112"/>
+      <c r="B143" s="115"/>
       <c r="C143" s="28" t="s">
         <v>175</v>
       </c>
@@ -15423,7 +15437,7 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B144" s="112"/>
+      <c r="B144" s="115"/>
       <c r="C144" s="28" t="s">
         <v>174</v>
       </c>
@@ -15449,7 +15463,7 @@
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B145" s="112" t="s">
+      <c r="B145" s="115" t="s">
         <v>1</v>
       </c>
       <c r="C145" s="28" t="s">
@@ -15477,7 +15491,7 @@
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B146" s="112"/>
+      <c r="B146" s="115"/>
       <c r="C146" s="28" t="s">
         <v>175</v>
       </c>
@@ -15503,7 +15517,7 @@
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B147" s="112"/>
+      <c r="B147" s="115"/>
       <c r="C147" s="28" t="s">
         <v>174</v>
       </c>
@@ -15529,7 +15543,7 @@
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B148" s="112" t="s">
+      <c r="B148" s="115" t="s">
         <v>2</v>
       </c>
       <c r="C148" s="28" t="s">
@@ -15557,7 +15571,7 @@
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B149" s="112"/>
+      <c r="B149" s="115"/>
       <c r="C149" s="28" t="s">
         <v>175</v>
       </c>
@@ -15583,7 +15597,7 @@
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B150" s="112"/>
+      <c r="B150" s="115"/>
       <c r="C150" s="28" t="s">
         <v>174</v>
       </c>
@@ -15609,7 +15623,7 @@
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B151" s="112" t="s">
+      <c r="B151" s="115" t="s">
         <v>3</v>
       </c>
       <c r="C151" s="28" t="s">
@@ -15637,7 +15651,7 @@
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B152" s="112"/>
+      <c r="B152" s="115"/>
       <c r="C152" s="28" t="s">
         <v>175</v>
       </c>
@@ -15663,7 +15677,7 @@
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B153" s="112"/>
+      <c r="B153" s="115"/>
       <c r="C153" s="28" t="s">
         <v>174</v>
       </c>
@@ -15689,7 +15703,7 @@
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B154" s="112" t="s">
+      <c r="B154" s="115" t="s">
         <v>4</v>
       </c>
       <c r="C154" s="28" t="s">
@@ -15717,7 +15731,7 @@
       </c>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B155" s="112"/>
+      <c r="B155" s="115"/>
       <c r="C155" s="28" t="s">
         <v>175</v>
       </c>
@@ -15743,7 +15757,7 @@
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B156" s="112"/>
+      <c r="B156" s="115"/>
       <c r="C156" s="28" t="s">
         <v>174</v>
       </c>
@@ -15768,7 +15782,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="157" spans="2:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157" s="75" t="s">
         <v>172</v>
       </c>
@@ -15799,12 +15813,36 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="7YBF6kfp4IXlbxjb4O3tfzXyhz2BDFgqLuLzvz/p+qodnCGG2Qake5+RWmCnX0zz93sPJj5ic9jowGMSY4mLfA==" saltValue="9tBsFze6/p/aF84ZF7/Ezg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="45">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="B137:B139"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -15814,36 +15852,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B137:B139"/>
-    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -15864,22 +15878,22 @@
       <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.90625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="34.08984375" style="28" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="28" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="28" customWidth="1"/>
     <col min="5" max="6" width="15" style="28" customWidth="1"/>
-    <col min="7" max="16384" width="16.08984375" style="28"/>
+    <col min="7" max="16384" width="16.109375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="78" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="78" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="79"/>
       <c r="C2" s="80" t="s">
         <v>26</v>
@@ -15894,7 +15908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>222</v>
       </c>
@@ -15978,7 +15992,7 @@
       <c r="E8" s="74"/>
       <c r="F8" s="74"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>223</v>
       </c>
@@ -16001,7 +16015,7 @@
       <c r="E10" s="74"/>
       <c r="F10" s="74"/>
     </row>
-    <row r="11" spans="1:6" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="77" t="s">
         <v>224</v>
       </c>
@@ -16010,7 +16024,7 @@
       <c r="E11" s="87"/>
       <c r="F11" s="87"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>225</v>
       </c>
@@ -16070,7 +16084,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="B16" s="46"/>
       <c r="C16" s="88"/>
@@ -16078,7 +16092,7 @@
       <c r="E16" s="74"/>
       <c r="F16" s="74"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>229</v>
       </c>
@@ -16227,7 +16241,7 @@
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="46"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="105" t="s">
         <v>272</v>
       </c>
@@ -16237,12 +16251,12 @@
       <c r="E27" s="108"/>
       <c r="F27" s="108"/>
     </row>
-    <row r="28" spans="1:6" s="78" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="78" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="77" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="79"/>
       <c r="C29" s="80" t="s">
         <v>26</v>
@@ -16257,7 +16271,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
         <v>303</v>
       </c>
@@ -16357,7 +16371,7 @@
       <c r="E35" s="74"/>
       <c r="F35" s="74"/>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="30" t="s">
         <v>310</v>
       </c>
@@ -16378,7 +16392,7 @@
         <v>1.071</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="77" t="s">
         <v>224</v>
       </c>
@@ -16388,7 +16402,7 @@
       <c r="E38" s="87"/>
       <c r="F38" s="87"/>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
         <v>304</v>
       </c>
@@ -16460,7 +16474,7 @@
         <v>2.9330000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="30"/>
       <c r="B43" s="46"/>
       <c r="C43" s="88"/>
@@ -16468,7 +16482,7 @@
       <c r="E43" s="74"/>
       <c r="F43" s="74"/>
     </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
         <v>308</v>
       </c>
@@ -16646,7 +16660,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="105" t="s">
         <v>273</v>
       </c>
@@ -16656,12 +16670,12 @@
       <c r="E54" s="108"/>
       <c r="F54" s="108"/>
     </row>
-    <row r="55" spans="1:6" s="78" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" s="78" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="77" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="79"/>
       <c r="C56" s="80" t="s">
         <v>26</v>
@@ -16676,7 +16690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="30" t="s">
         <v>309</v>
       </c>
@@ -16776,7 +16790,7 @@
       <c r="E62" s="74"/>
       <c r="F62" s="74"/>
     </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="30" t="s">
         <v>311</v>
       </c>
@@ -16797,7 +16811,7 @@
         <v>1.9890000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="77" t="s">
         <v>224</v>
       </c>
@@ -16807,7 +16821,7 @@
       <c r="E65" s="87"/>
       <c r="F65" s="87"/>
     </row>
-    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="30" t="s">
         <v>312</v>
       </c>
@@ -16879,7 +16893,7 @@
         <v>5.447000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="30"/>
       <c r="B70" s="46"/>
       <c r="C70" s="88"/>
@@ -16887,7 +16901,7 @@
       <c r="E70" s="74"/>
       <c r="F70" s="74"/>
     </row>
-    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="30" t="s">
         <v>316</v>
       </c>
@@ -17086,23 +17100,23 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" style="28" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="28" customWidth="1"/>
-    <col min="4" max="8" width="14.81640625" style="28" customWidth="1"/>
-    <col min="9" max="12" width="15.36328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.90625" style="28" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.81640625" style="28"/>
+    <col min="1" max="1" width="27.21875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="28" customWidth="1"/>
+    <col min="4" max="8" width="14.77734375" style="28" customWidth="1"/>
+    <col min="9" max="12" width="15.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.88671875" style="28" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="78" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="91" t="s">
         <v>211</v>
       </c>
@@ -17136,7 +17150,7 @@
       <c r="O2" s="92"/>
       <c r="P2" s="92"/>
     </row>
-    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="30"/>
       <c r="B3" s="28" t="s">
         <v>71</v>
@@ -17569,7 +17583,7 @@
       <c r="O17" s="91"/>
       <c r="P17" s="91"/>
     </row>
-    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="32" t="s">
         <v>236</v>
       </c>
@@ -17827,12 +17841,12 @@
       <c r="O26" s="91"/>
       <c r="P26" s="91"/>
     </row>
-    <row r="28" spans="1:16" s="78" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="77" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="91" t="s">
         <v>238</v>
       </c>
@@ -17866,7 +17880,7 @@
       <c r="O29" s="92"/>
       <c r="P29" s="92"/>
     </row>
-    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="30"/>
       <c r="B30" s="28" t="s">
         <v>71</v>
@@ -18561,12 +18575,12 @@
       <c r="C54" s="32"/>
       <c r="D54" s="32"/>
     </row>
-    <row r="55" spans="1:16" s="78" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="77" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A56" s="91" t="s">
         <v>70</v>
       </c>
@@ -18594,7 +18608,7 @@
       <c r="O56" s="92"/>
       <c r="P56" s="92"/>
     </row>
-    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="30"/>
       <c r="B57" s="28" t="s">
         <v>38</v>
@@ -18740,12 +18754,12 @@
       <c r="C63" s="32"/>
       <c r="D63" s="32"/>
     </row>
-    <row r="64" spans="1:16" s="78" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="77" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A65" s="91" t="s">
         <v>24</v>
       </c>
@@ -18779,7 +18793,7 @@
       <c r="O65" s="92"/>
       <c r="P65" s="92"/>
     </row>
-    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="95"/>
       <c r="B66" s="28" t="s">
         <v>73</v>
@@ -19815,12 +19829,12 @@
       <c r="O101" s="91"/>
       <c r="P101" s="91"/>
     </row>
-    <row r="103" spans="1:16" s="78" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="77" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A104" s="91" t="s">
         <v>71</v>
       </c>
@@ -19854,7 +19868,7 @@
       <c r="O104" s="92"/>
       <c r="P104" s="92"/>
     </row>
-    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="30"/>
       <c r="C105" s="32" t="s">
         <v>166</v>
@@ -19967,13 +19981,13 @@
       <c r="O108" s="91"/>
       <c r="P108" s="91"/>
     </row>
-    <row r="110" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="105" t="s">
         <v>272</v>
       </c>
       <c r="H110" s="105"/>
     </row>
-    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="77" t="s">
         <v>230</v>
       </c>
@@ -19985,7 +19999,7 @@
       <c r="G111" s="78"/>
       <c r="H111" s="78"/>
     </row>
-    <row r="112" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="91" t="s">
         <v>211</v>
       </c>
@@ -20011,7 +20025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="30"/>
       <c r="B113" s="28" t="s">
         <v>71</v>
@@ -20630,7 +20644,7 @@
         <v>2.4079999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="77" t="s">
         <v>237</v>
       </c>
@@ -20642,7 +20656,7 @@
       <c r="G138" s="78"/>
       <c r="H138" s="78"/>
     </row>
-    <row r="139" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="91" t="s">
         <v>238</v>
       </c>
@@ -20668,7 +20682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="30"/>
       <c r="B140" s="28" t="s">
         <v>71</v>
@@ -21291,7 +21305,7 @@
       <c r="C164" s="32"/>
       <c r="D164" s="32"/>
     </row>
-    <row r="165" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="77" t="s">
         <v>240</v>
       </c>
@@ -21303,7 +21317,7 @@
       <c r="G165" s="78"/>
       <c r="H165" s="78"/>
     </row>
-    <row r="166" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A166" s="91" t="s">
         <v>70</v>
       </c>
@@ -21327,7 +21341,7 @@
       </c>
       <c r="H166" s="92"/>
     </row>
-    <row r="167" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="30"/>
       <c r="B167" s="28" t="s">
         <v>38</v>
@@ -21473,7 +21487,7 @@
       <c r="C173" s="32"/>
       <c r="D173" s="32"/>
     </row>
-    <row r="174" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="77" t="s">
         <v>244</v>
       </c>
@@ -21485,7 +21499,7 @@
       <c r="G174" s="78"/>
       <c r="H174" s="78"/>
     </row>
-    <row r="175" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A175" s="91" t="s">
         <v>24</v>
       </c>
@@ -21511,7 +21525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="95"/>
       <c r="B176" s="28" t="s">
         <v>73</v>
@@ -22403,7 +22417,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="77" t="s">
         <v>246</v>
       </c>
@@ -22415,7 +22429,7 @@
       <c r="G213" s="78"/>
       <c r="H213" s="78"/>
     </row>
-    <row r="214" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A214" s="91" t="s">
         <v>71</v>
       </c>
@@ -22441,7 +22455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="30"/>
       <c r="C215" s="32" t="s">
         <v>166</v>
@@ -22538,13 +22552,13 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="220" spans="1:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="105" t="s">
         <v>273</v>
       </c>
       <c r="H220" s="105"/>
     </row>
-    <row r="221" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="77" t="s">
         <v>230</v>
       </c>
@@ -22557,7 +22571,7 @@
       <c r="H221" s="78"/>
       <c r="I221" s="78"/>
     </row>
-    <row r="222" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="91" t="s">
         <v>211</v>
       </c>
@@ -22584,7 +22598,7 @@
       </c>
       <c r="I222" s="92"/>
     </row>
-    <row r="223" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="30"/>
       <c r="B223" s="28" t="s">
         <v>71</v>
@@ -23227,7 +23241,7 @@
       </c>
       <c r="I246" s="91"/>
     </row>
-    <row r="248" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="77" t="s">
         <v>237</v>
       </c>
@@ -23240,7 +23254,7 @@
       <c r="H248" s="78"/>
       <c r="I248" s="78"/>
     </row>
-    <row r="249" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="91" t="s">
         <v>238</v>
       </c>
@@ -23267,7 +23281,7 @@
       </c>
       <c r="I249" s="92"/>
     </row>
-    <row r="250" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="30"/>
       <c r="B250" s="28" t="s">
         <v>71</v>
@@ -23914,7 +23928,7 @@
       <c r="C274" s="32"/>
       <c r="D274" s="32"/>
     </row>
-    <row r="275" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="77" t="s">
         <v>240</v>
       </c>
@@ -23927,7 +23941,7 @@
       <c r="H275" s="78"/>
       <c r="I275" s="78"/>
     </row>
-    <row r="276" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A276" s="91" t="s">
         <v>70</v>
       </c>
@@ -23951,7 +23965,7 @@
       </c>
       <c r="H276" s="92"/>
     </row>
-    <row r="277" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="30"/>
       <c r="B277" s="28" t="s">
         <v>38</v>
@@ -24097,7 +24111,7 @@
       <c r="C283" s="32"/>
       <c r="D283" s="32"/>
     </row>
-    <row r="284" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="77" t="s">
         <v>244</v>
       </c>
@@ -24110,7 +24124,7 @@
       <c r="H284" s="78"/>
       <c r="I284" s="78"/>
     </row>
-    <row r="285" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A285" s="91" t="s">
         <v>24</v>
       </c>
@@ -24137,7 +24151,7 @@
       </c>
       <c r="I285" s="92"/>
     </row>
-    <row r="286" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="95"/>
       <c r="B286" s="28" t="s">
         <v>73</v>
@@ -25065,7 +25079,7 @@
       </c>
       <c r="I321" s="91"/>
     </row>
-    <row r="323" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="77" t="s">
         <v>246</v>
       </c>
@@ -25078,7 +25092,7 @@
       <c r="H323" s="78"/>
       <c r="I323" s="78"/>
     </row>
-    <row r="324" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A324" s="91" t="s">
         <v>71</v>
       </c>
@@ -25105,7 +25119,7 @@
       </c>
       <c r="I324" s="92"/>
     </row>
-    <row r="325" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="30"/>
       <c r="C325" s="32" t="s">
         <v>166</v>
@@ -25227,24 +25241,24 @@
       <selection activeCell="E55" sqref="E55:G55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.90625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="28" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" style="28" customWidth="1"/>
+    <col min="1" max="1" width="44.88671875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="28" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="28" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="28" customWidth="1"/>
     <col min="6" max="6" width="15" style="28" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="28"/>
+    <col min="7" max="7" width="13.6640625" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="78" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="78" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="95" t="s">
         <v>25</v>
       </c>
@@ -25285,7 +25299,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
       <c r="B4" s="71" t="s">
         <v>250</v>
@@ -25306,7 +25320,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="82" t="s">
         <v>251</v>
       </c>
@@ -25379,12 +25393,12 @@
       <c r="F9" s="71"/>
       <c r="G9" s="71"/>
     </row>
-    <row r="10" spans="1:7" s="78" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="78" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="77" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="82"/>
       <c r="B11" s="46" t="s">
         <v>195</v>
@@ -25405,16 +25419,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="82"/>
       <c r="B12" s="46"/>
     </row>
-    <row r="13" spans="1:7" s="78" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="78" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="77" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="95" t="s">
         <v>238</v>
       </c>
@@ -25437,7 +25451,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="71" t="s">
         <v>255</v>
@@ -25458,7 +25472,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="95" t="s">
         <v>70</v>
       </c>
@@ -25482,12 +25496,12 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:7" s="78" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="78" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="77" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="82" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="82" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="44" t="s">
         <v>49</v>
       </c>
@@ -25518,12 +25532,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="105" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="105" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="77" t="s">
         <v>247</v>
       </c>
@@ -25534,7 +25548,7 @@
       <c r="F23" s="78"/>
       <c r="G23" s="78"/>
     </row>
-    <row r="24" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="95" t="s">
         <v>25</v>
       </c>
@@ -25579,7 +25593,7 @@
         <v>157.22999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="30"/>
       <c r="B26" s="71" t="s">
         <v>284</v>
@@ -25605,7 +25619,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="82" t="s">
         <v>325</v>
       </c>
@@ -25693,7 +25707,7 @@
       <c r="F31" s="71"/>
       <c r="G31" s="71"/>
     </row>
-    <row r="32" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="77" t="s">
         <v>326</v>
       </c>
@@ -25704,7 +25718,7 @@
       <c r="F32" s="78"/>
       <c r="G32" s="78"/>
     </row>
-    <row r="33" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="82"/>
       <c r="B33" s="46" t="s">
         <v>288</v>
@@ -25727,11 +25741,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="82"/>
       <c r="B34" s="46"/>
     </row>
-    <row r="35" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="77" t="s">
         <v>253</v>
       </c>
@@ -25742,7 +25756,7 @@
       <c r="F35" s="78"/>
       <c r="G35" s="78"/>
     </row>
-    <row r="36" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="95" t="s">
         <v>238</v>
       </c>
@@ -25770,7 +25784,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="30"/>
       <c r="B37" s="71" t="s">
         <v>290</v>
@@ -25796,7 +25810,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="95" t="s">
         <v>70</v>
       </c>
@@ -25824,7 +25838,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="77" t="s">
         <v>327</v>
       </c>
@@ -25835,7 +25849,7 @@
       <c r="F40" s="78"/>
       <c r="G40" s="78"/>
     </row>
-    <row r="41" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="82"/>
       <c r="B41" s="82"/>
       <c r="C41" s="44" t="s">
@@ -25873,12 +25887,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="105" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="105" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="77" t="s">
         <v>247</v>
       </c>
@@ -25889,7 +25903,7 @@
       <c r="F45" s="78"/>
       <c r="G45" s="78"/>
     </row>
-    <row r="46" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="95" t="s">
         <v>25</v>
       </c>
@@ -25934,7 +25948,7 @@
         <v>183.435</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="30"/>
       <c r="B48" s="71" t="s">
         <v>294</v>
@@ -25960,7 +25974,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="82" t="s">
         <v>330</v>
       </c>
@@ -26048,7 +26062,7 @@
       <c r="F53" s="71"/>
       <c r="G53" s="71"/>
     </row>
-    <row r="54" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="77" t="s">
         <v>328</v>
       </c>
@@ -26059,7 +26073,7 @@
       <c r="F54" s="78"/>
       <c r="G54" s="78"/>
     </row>
-    <row r="55" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="82"/>
       <c r="B55" s="46" t="s">
         <v>298</v>
@@ -26082,11 +26096,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="82"/>
       <c r="B56" s="46"/>
     </row>
-    <row r="57" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="77" t="s">
         <v>253</v>
       </c>
@@ -26097,7 +26111,7 @@
       <c r="F57" s="78"/>
       <c r="G57" s="78"/>
     </row>
-    <row r="58" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="95" t="s">
         <v>238</v>
       </c>
@@ -26125,7 +26139,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="30"/>
       <c r="B59" s="71" t="s">
         <v>300</v>
@@ -26151,7 +26165,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="95" t="s">
         <v>70</v>
       </c>
@@ -26179,7 +26193,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="77" t="s">
         <v>329</v>
       </c>
@@ -26190,7 +26204,7 @@
       <c r="F62" s="78"/>
       <c r="G62" s="78"/>
     </row>
-    <row r="63" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="82"/>
       <c r="B63" s="82"/>
       <c r="C63" s="44" t="s">
@@ -26250,16 +26264,16 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" style="28" customWidth="1"/>
-    <col min="2" max="6" width="16.08984375" style="28"/>
-    <col min="7" max="7" width="17.1796875" style="28" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" style="28" customWidth="1"/>
-    <col min="9" max="16384" width="16.08984375" style="28"/>
+    <col min="1" max="1" width="52.21875" style="28" customWidth="1"/>
+    <col min="2" max="6" width="16.109375" style="28"/>
+    <col min="7" max="7" width="17.21875" style="28" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" style="28" customWidth="1"/>
+    <col min="9" max="16384" width="16.109375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>69</v>
       </c>
@@ -26505,12 +26519,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="105" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="105" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="105" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
         <v>69</v>
       </c>
@@ -26804,12 +26818,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="105" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="105" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="105" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
         <v>69</v>
       </c>
@@ -27124,15 +27138,15 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" style="28" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" style="28" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="28" customWidth="1"/>
-    <col min="16" max="16384" width="12.81640625" style="28"/>
+    <col min="16" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="81" t="s">
@@ -27175,7 +27189,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>260</v>
       </c>
@@ -27620,7 +27634,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="46" t="s">
         <v>137</v>
       </c>
@@ -27708,7 +27722,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>261</v>
       </c>
@@ -27890,12 +27904,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="105" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="105" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="30"/>
       <c r="B23" s="30"/>
       <c r="C23" s="81" t="s">
@@ -27938,7 +27952,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
         <v>277</v>
       </c>
@@ -28627,7 +28641,7 @@
         <v>0.29700000000000004</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="30" t="s">
         <v>278</v>
       </c>
@@ -28861,12 +28875,12 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="44" spans="1:15" s="105" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="105" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="26" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="81" t="s">
@@ -28909,7 +28923,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="30" t="s">
         <v>279</v>
       </c>
@@ -29598,7 +29612,7 @@
         <v>0.34650000000000003</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="30" t="s">
         <v>280</v>
       </c>
@@ -29853,15 +29867,15 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="27.81640625" style="28" customWidth="1"/>
-    <col min="3" max="7" width="15.54296875" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="28"/>
+    <col min="1" max="1" width="21.33203125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" style="28" customWidth="1"/>
+    <col min="3" max="7" width="15.5546875" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="30"/>
       <c r="B1" s="42"/>
       <c r="C1" s="30" t="s">
@@ -29880,7 +29894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>262</v>
       </c>
@@ -29905,7 +29919,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>263</v>
       </c>
@@ -29936,12 +29950,12 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="105" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="105" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
       <c r="B8" s="42"/>
       <c r="C8" s="30" t="s">
@@ -29960,7 +29974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>323</v>
       </c>
@@ -29990,7 +30004,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>281</v>
       </c>
@@ -30026,12 +30040,12 @@
         <v>0.12869999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="105" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="105" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="42"/>
       <c r="C15" s="30" t="s">
@@ -30050,7 +30064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>282</v>
       </c>
@@ -30080,7 +30094,7 @@
         <v>0.2205</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>283</v>
       </c>
@@ -30137,20 +30151,20 @@
       <selection activeCell="D135" sqref="D135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="40" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="40" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" style="40" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="40" customWidth="1"/>
     <col min="4" max="4" width="15" style="28" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" style="28" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="28" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="28"/>
-    <col min="8" max="8" width="17.54296875" style="28" customWidth="1"/>
-    <col min="9" max="16384" width="12.81640625" style="28"/>
+    <col min="5" max="5" width="13.6640625" style="28" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="28" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="28"/>
+    <col min="8" max="8" width="17.5546875" style="28" customWidth="1"/>
+    <col min="9" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>69</v>
       </c>
@@ -31244,14 +31258,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="109" t="s">
         <v>275</v>
       </c>
       <c r="B51" s="110"/>
       <c r="C51" s="110"/>
     </row>
-    <row r="52" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="30" t="s">
         <v>69</v>
       </c>
@@ -32585,14 +32599,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:8" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="109" t="s">
         <v>276</v>
       </c>
       <c r="B102" s="110"/>
       <c r="C102" s="110"/>
     </row>
-    <row r="103" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="30" t="s">
         <v>69</v>
       </c>
@@ -33943,20 +33957,20 @@
   </sheetPr>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="28" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" style="28" customWidth="1"/>
-    <col min="4" max="7" width="17.1796875" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="28"/>
+    <col min="2" max="2" width="27.44140625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="28" customWidth="1"/>
+    <col min="4" max="7" width="17.21875" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>69</v>
       </c>
@@ -34104,12 +34118,12 @@
       </c>
       <c r="H7" s="32"/>
     </row>
-    <row r="9" spans="1:8" s="105" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="105" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
         <v>69</v>
       </c>
@@ -34274,12 +34288,12 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="105" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="105" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
         <v>69</v>
       </c>
@@ -34460,18 +34474,18 @@
   </sheetPr>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="2" width="31.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2017) attributable to cause</v>
@@ -34482,7 +34496,7 @@
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>209</v>
       </c>
@@ -34565,7 +34579,7 @@
       <c r="B11" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="C11" s="114">
+      <c r="C11" s="113">
         <f>SUM(C3:C10)</f>
         <v>1</v>
       </c>
@@ -34581,23 +34595,23 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="31" t="s">
         <v>210</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="116" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="19"/>
@@ -34759,19 +34773,19 @@
       <c r="B23" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="C23" s="114">
+      <c r="C23" s="113">
         <f>SUM(C14:C22)</f>
         <v>1</v>
       </c>
-      <c r="D23" s="114">
+      <c r="D23" s="113">
         <f t="shared" ref="D23:F23" si="0">SUM(D14:D22)</f>
         <v>1</v>
       </c>
-      <c r="E23" s="114">
+      <c r="E23" s="113">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F23" s="114">
+      <c r="F23" s="113">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -34787,7 +34801,7 @@
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -34879,13 +34893,13 @@
       <c r="B35" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="C35" s="114">
+      <c r="C35" s="113">
         <f>SUM(C26:C34)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KSVh1D2gzMiUDB+0vI0Su6O2YWS4O1tQhVe07Nxv1h11LP9IEQmhiEkQKmsAODnEAE8aiBVqGXAzBvNvyhFh5g==" saltValue="7nB09n8JdAxuaOBqznyZ3A==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="YlILHa5vRrYD8TFdmiZULSLtGTZ08CMUs80r2V9Y9Iwa4wZe/PhqHo8DrHud68V7OEhtmO2cRKuNi4BwmiGoYg==" saltValue="KrXCXlBO5HP8BT1ajZsY2g==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -34903,13 +34917,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2017)</v>
@@ -34940,23 +34954,23 @@
       <c r="B2" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="115">
+      <c r="C2" s="114">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.54471569980476653</v>
       </c>
-      <c r="D2" s="115">
+      <c r="D2" s="114">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.54471569980476653</v>
       </c>
-      <c r="E2" s="115">
+      <c r="E2" s="114">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.44982829694488635</v>
       </c>
-      <c r="F2" s="115">
+      <c r="F2" s="114">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.24457139941017503</v>
       </c>
-      <c r="G2" s="115">
+      <c r="G2" s="114">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.23269074767298425</v>
       </c>
@@ -34965,23 +34979,23 @@
       <c r="B3" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="115">
+      <c r="C3" s="114">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
         <v>0.32228430019523346</v>
       </c>
-      <c r="D3" s="115">
+      <c r="D3" s="114">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE) - SUM(D4:D5), "")</f>
         <v>0.32228430019523346</v>
       </c>
-      <c r="E3" s="115">
+      <c r="E3" s="114">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE) - SUM(E4:E5), "")</f>
         <v>0.35908666207150708</v>
       </c>
-      <c r="F3" s="115">
+      <c r="F3" s="114">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE) - SUM(F4:F5), "")</f>
         <v>0.37651189492768178</v>
       </c>
-      <c r="G3" s="115">
+      <c r="G3" s="114">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE) - SUM(G4:G5), "")</f>
         <v>0.37372365733745416</v>
       </c>
@@ -35049,23 +35063,23 @@
       <c r="B8" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="115">
+      <c r="C8" s="114">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.6241955901533508</v>
       </c>
-      <c r="D8" s="115">
+      <c r="D8" s="114">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.6241955901533508</v>
       </c>
-      <c r="E8" s="115">
+      <c r="E8" s="114">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.68355843805440353</v>
       </c>
-      <c r="F8" s="115">
+      <c r="F8" s="114">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.73228840888273117</v>
       </c>
-      <c r="G8" s="115">
+      <c r="G8" s="114">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.81212055177975573</v>
       </c>
@@ -35074,23 +35088,23 @@
       <c r="B9" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="115">
+      <c r="C9" s="114">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
         <v>0.28180440984664923</v>
       </c>
-      <c r="D9" s="115">
+      <c r="D9" s="114">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE) - SUM(D10:D11), "")</f>
         <v>0.28180440984664923</v>
       </c>
-      <c r="E9" s="115">
+      <c r="E9" s="114">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE) - SUM(E10:E11), "")</f>
         <v>0.2466938696379041</v>
       </c>
-      <c r="F9" s="115">
+      <c r="F9" s="114">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE) - SUM(F10:F11), "")</f>
         <v>0.21506846670192739</v>
       </c>
-      <c r="G9" s="115">
+      <c r="G9" s="114">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE) - SUM(G10:G11), "")</f>
         <v>0.15821429221536368</v>
       </c>
@@ -35241,55 +35255,55 @@
       <c r="B15" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="115">
+      <c r="C15" s="114">
         <f t="shared" ref="C15:O15" si="0">iron_deficiency_anaemia*C14</f>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="D15" s="115">
+      <c r="D15" s="114">
         <f t="shared" si="0"/>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E15" s="115">
+      <c r="E15" s="114">
         <f t="shared" si="0"/>
         <v>0.32801999999999998</v>
       </c>
-      <c r="F15" s="115">
+      <c r="F15" s="114">
         <f t="shared" si="0"/>
         <v>0.30639</v>
       </c>
-      <c r="G15" s="115">
+      <c r="G15" s="114">
         <f t="shared" si="0"/>
         <v>0.20314000000000002</v>
       </c>
-      <c r="H15" s="115">
+      <c r="H15" s="114">
         <f t="shared" si="0"/>
         <v>0.19865999999999998</v>
       </c>
-      <c r="I15" s="115">
+      <c r="I15" s="114">
         <f t="shared" si="0"/>
         <v>0.18773999999999999</v>
       </c>
-      <c r="J15" s="115">
+      <c r="J15" s="114">
         <f t="shared" si="0"/>
         <v>0.18185999999999999</v>
       </c>
-      <c r="K15" s="115">
+      <c r="K15" s="114">
         <f t="shared" si="0"/>
         <v>0.18564</v>
       </c>
-      <c r="L15" s="115">
+      <c r="L15" s="114">
         <f t="shared" si="0"/>
         <v>0.19865999999999998</v>
       </c>
-      <c r="M15" s="115">
+      <c r="M15" s="114">
         <f t="shared" si="0"/>
         <v>0.18773999999999999</v>
       </c>
-      <c r="N15" s="115">
+      <c r="N15" s="114">
         <f t="shared" si="0"/>
         <v>0.18185999999999999</v>
       </c>
-      <c r="O15" s="115">
+      <c r="O15" s="114">
         <f t="shared" si="0"/>
         <v>0.18564</v>
       </c>
@@ -35327,13 +35341,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.90625" customWidth="1"/>
-    <col min="2" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+    <col min="2" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2017)</v>
@@ -35424,23 +35438,23 @@
       <c r="B5" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="115">
+      <c r="C5" s="114">
         <f>1-SUM(C2:C4)</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="D5" s="115">
+      <c r="D5" s="114">
         <f t="shared" ref="D5:G5" si="0">1-SUM(D2:D4)</f>
         <v>2.4399366085578356E-2</v>
       </c>
-      <c r="E5" s="115">
+      <c r="E5" s="114">
         <f t="shared" si="0"/>
         <v>1.8961838681699872E-2</v>
       </c>
-      <c r="F5" s="115">
+      <c r="F5" s="114">
         <f t="shared" si="0"/>
         <v>0.27800000000000002</v>
       </c>
-      <c r="G5" s="115">
+      <c r="G5" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -35463,13 +35477,13 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
@@ -35668,19 +35682,19 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" style="40" customWidth="1"/>
     <col min="2" max="2" width="20" style="28" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" style="28" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" style="28" customWidth="1"/>
-    <col min="5" max="5" width="36.36328125" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="28" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" style="28" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.6328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="14.453125" style="28"/>
+    <col min="7" max="7" width="22.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="14.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>69</v>
       </c>
@@ -36589,13 +36603,13 @@
       <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.36328125" customWidth="1"/>
+    <col min="1" max="1" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>332</v>
       </c>
@@ -36668,15 +36682,15 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="28" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" style="28" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="28"/>
+    <col min="2" max="2" width="19.109375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="28" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>178</v>
       </c>
@@ -36693,7 +36707,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>173</v>
       </c>
@@ -36767,7 +36781,7 @@
       <c r="D7" s="33"/>
       <c r="E7" s="63"/>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
         <v>198</v>
       </c>
@@ -36837,7 +36851,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>199</v>
       </c>
